--- a/CompartmentMap.xlsx
+++ b/CompartmentMap.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VNET Parms" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NSG Parms" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$3:$I$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NSG Parms'!$A$3:$J$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="87">
   <si>
     <t>East US</t>
   </si>
@@ -145,9 +145,6 @@
     <t>-- PoweShell JSON Parameter Defs</t>
   </si>
   <si>
-    <t>-- PoweShell Parameter Variable Defs</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -224,6 +221,76 @@
   </si>
   <si>
     <t>Outbound</t>
+  </si>
+  <si>
+    <t>-- PoweShell Parameter Variable Def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{name": "rdprule", "properties": { "description": "This rule allows traffic on port 3389 from the web", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3389", "sourceAddressPrefix": "INTERNET", "destinationAddressPrefix": "[parameters('subnet1AddrPrefix')]", "access": "Allow", "priority": 200, "direction": "Inbound" }}
+</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Deny</t>
+  </si>
+  <si>
+    <t>INTERNET</t>
+  </si>
+  <si>
+    <t>FE Subnet</t>
+  </si>
+  <si>
+    <t>BE Subnet</t>
+  </si>
+  <si>
+    <t>Int_http</t>
+  </si>
+  <si>
+    <t>int_https</t>
+  </si>
+  <si>
+    <t>Int_rdp</t>
+  </si>
+  <si>
+    <t>FE_Deny</t>
+  </si>
+  <si>
+    <t>FE_sql</t>
+  </si>
+  <si>
+    <t>location1</t>
+  </si>
+  <si>
+    <t>location2</t>
+  </si>
+  <si>
+    <t>Shared Key</t>
+  </si>
+  <si>
+    <t>DXCDynamics!2017</t>
+  </si>
+  <si>
+    <t>gateway1Name</t>
+  </si>
+  <si>
+    <t>gateway2Name</t>
   </si>
 </sst>
 </file>
@@ -320,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -343,10 +410,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -383,7 +447,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
+          <xdr:colOff>781050</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -685,1070 +749,1495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R64"/>
+  <dimension ref="A2:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="16.5">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="4">
         <v>20</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>30</v>
       </c>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5">
-      <c r="A6" s="5" t="s">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" ht="16.5">
       <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="4" t="str">
-        <f>"NetworkRGComp"&amp;B3</f>
-        <v>NetworkRGCompZ</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f>"NetworkRGComp"&amp;C3</f>
-        <v>NetworkRGCompA</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f>"NetworkRGComp"&amp;D3</f>
-        <v>NetworkRGCompB</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f>"NetworkRGComp"&amp;E3</f>
-        <v>NetworkRGCompC</v>
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
       </c>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>"VNetComp"&amp;B3</f>
-        <v>VNetCompZ</v>
+        <f>"NetworkRGComp"&amp;B4</f>
+        <v>NetworkRGCompZ</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>"VNetComp"&amp;C3</f>
-        <v>VNetCompA</v>
+        <f>"NetworkRGComp"&amp;C4</f>
+        <v>NetworkRGCompA</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>"VNetComp"&amp;D3</f>
-        <v>VNetCompB</v>
+        <f>"NetworkRGComp"&amp;D4</f>
+        <v>NetworkRGCompB</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>"VNetComp"&amp;E3</f>
-        <v>VNetCompC</v>
+        <f>"NetworkRGComp"&amp;E4</f>
+        <v>NetworkRGCompC</v>
       </c>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" ht="16.5">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>"VNetComp"&amp;B4</f>
+        <v>VNetCompZ</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f>"VNetComp"&amp;C4</f>
+        <v>VNetCompA</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>"VNetComp"&amp;D4</f>
+        <v>VNetCompB</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>"VNetComp"&amp;E4</f>
+        <v>VNetCompC</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.5">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="str">
-        <f>"10."&amp;B$5&amp;".0.0/16"</f>
+      <c r="B11" t="str">
+        <f>"10."&amp;B$6&amp;".0.0/16"</f>
         <v>10.1.0.0/16</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" ref="C10:E10" si="0">"10."&amp;C$5&amp;".0.0/16"</f>
+      <c r="C11" t="str">
+        <f t="shared" ref="C11:E11" si="0">"10."&amp;C$6&amp;".0.0/16"</f>
         <v>10.10.0.0/16</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>10.20.0.0/16</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>10.30.0.0/16</v>
       </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="str">
-        <f>"SecGroupComp"&amp;B3&amp;"FE"</f>
-        <v>SecGroupCompZFE</v>
-      </c>
-      <c r="C11" t="str">
-        <f>"SecGroupComp"&amp;C3&amp;"FE"</f>
-        <v>SecGroupCompAFE</v>
-      </c>
-      <c r="D11" t="str">
-        <f>"SecGroupComp"&amp;D3&amp;"FE"</f>
-        <v>SecGroupCompBFE</v>
-      </c>
-      <c r="E11" t="str">
-        <f>"SecGroupComp"&amp;E3&amp;"FE"</f>
-        <v>SecGroupCompCFE</v>
-      </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="16.5">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B12" t="str">
+        <f>"SecGroupComp"&amp;B4&amp;"FE"</f>
+        <v>SecGroupCompZFE</v>
       </c>
       <c r="C12" t="str">
-        <f>"SecGroupComp"&amp;C3&amp;"BE"</f>
-        <v>SecGroupCompABE</v>
+        <f>"SecGroupComp"&amp;C4&amp;"FE"</f>
+        <v>SecGroupCompAFE</v>
       </c>
       <c r="D12" t="str">
-        <f>"SecGroupComp"&amp;D3&amp;"BE"</f>
-        <v>SecGroupCompBBE</v>
+        <f>"SecGroupComp"&amp;D4&amp;"FE"</f>
+        <v>SecGroupCompBFE</v>
       </c>
       <c r="E12" t="str">
-        <f>"SecGroupComp"&amp;E3&amp;"BE"</f>
-        <v>SecGroupCompCBE</v>
+        <f>"SecGroupComp"&amp;E4&amp;"FE"</f>
+        <v>SecGroupCompCFE</v>
       </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="16.5">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"SecGroupComp"&amp;C4&amp;"BE"</f>
+        <v>SecGroupCompABE</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"SecGroupComp"&amp;D4&amp;"BE"</f>
+        <v>SecGroupCompBBE</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"SecGroupComp"&amp;E4&amp;"BE"</f>
+        <v>SecGroupCompCBE</v>
       </c>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="16.5">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="16.5">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="str">
-        <f>"10."&amp;B$5&amp;".0.0/24"</f>
+      <c r="B15" t="str">
+        <f>"10."&amp;B$6&amp;".0.0/24"</f>
         <v>10.1.0.0/24</v>
       </c>
-      <c r="C14" t="str">
-        <f>"10."&amp;C$5&amp;".10.0/24"</f>
+      <c r="C15" t="str">
+        <f>"10."&amp;C$6&amp;".10.0/24"</f>
         <v>10.10.10.0/24</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" ref="D14:E14" si="1">"10."&amp;D$5&amp;".10.0/24"</f>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:E15" si="1">"10."&amp;D$6&amp;".10.0/24"</f>
         <v>10.20.10.0/24</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="1"/>
         <v>10.30.10.0/24</v>
       </c>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="16.5">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" ht="16.5">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="str">
-        <f>"10."&amp;C$5&amp;".20.0/24"</f>
+      <c r="C17" t="str">
+        <f>"10."&amp;C$6&amp;".20.0/24"</f>
         <v>10.10.20.0/24</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" ref="D16:E16" si="2">"10."&amp;D$5&amp;".20.0/24"</f>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17:E17" si="2">"10."&amp;D$6&amp;".20.0/24"</f>
         <v>10.20.20.0/24</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="2"/>
         <v>10.30.20.0/24</v>
       </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5">
-      <c r="A17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" ht="16.5">
       <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="16.5">
+      <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="str">
-        <f>"10."&amp;B$5&amp;".255.0/27"</f>
+      <c r="B19" t="str">
+        <f>"10."&amp;B$6&amp;".255.0/27"</f>
         <v>10.1.255.0/27</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" ref="C18:E18" si="3">"10."&amp;C$5&amp;".255.0/27"</f>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:E19" si="3">"10."&amp;C$6&amp;".255.0/27"</f>
         <v>10.10.255.0/27</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="3"/>
         <v>10.20.255.0/27</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="3"/>
         <v>10.30.255.0/27</v>
       </c>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5">
-      <c r="A19" s="1" t="s">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="16.5">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="str">
-        <f>B9&amp;"GW"</f>
+      <c r="B20" t="str">
+        <f>B10&amp;"GW"</f>
         <v>VNetCompZGW</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" ref="C19:E19" si="4">C9&amp;"GW"</f>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:E20" si="4">C10&amp;"GW"</f>
         <v>VNetCompAGW</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="4"/>
         <v>VNetCompBGW</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="4"/>
         <v>VNetCompCGW</v>
       </c>
-      <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5">
-      <c r="A20" s="1" t="s">
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="16.5">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="str">
-        <f>B19&amp;"IP"</f>
+      <c r="B21" t="str">
+        <f>B20&amp;"IP"</f>
         <v>VNetCompZGWIP</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" ref="C20:E20" si="5">C19&amp;"IP"</f>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:E21" si="5">C20&amp;"IP"</f>
         <v>VNetCompAGWIP</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="5"/>
         <v>VNetCompBGWIP</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="5"/>
         <v>VNetCompCGWIP</v>
       </c>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5">
-      <c r="A21" s="1" t="s">
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="16.5">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="str">
-        <f>B20&amp;"Conf"</f>
+      <c r="B22" t="str">
+        <f>B21&amp;"Conf"</f>
         <v>VNetCompZGWIPConf</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" ref="C21:E21" si="6">C20&amp;"Conf"</f>
+      <c r="C22" t="str">
+        <f t="shared" ref="C22:E22" si="6">C21&amp;"Conf"</f>
         <v>VNetCompAGWIPConf</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="6"/>
         <v>VNetCompBGWIPConf</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="6"/>
         <v>VNetCompCGWIPConf</v>
       </c>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5">
-      <c r="A22" s="1" t="s">
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" ht="16.5">
+      <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="str">
-        <f>"Conn"&amp;$B9&amp;"to"&amp;C9</f>
+      <c r="C23" t="str">
+        <f>"Conn"&amp;$B10&amp;"to"&amp;C10</f>
         <v>ConnVNetCompZtoVNetCompA</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" ref="D22:E22" si="7">"Conn"&amp;$B9&amp;"to"&amp;D9</f>
+      <c r="D23" t="str">
+        <f t="shared" ref="D23:E23" si="7">"Conn"&amp;$B10&amp;"to"&amp;D10</f>
         <v>ConnVNetCompZtoVNetCompB</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="7"/>
         <v>ConnVNetCompZtoVNetCompC</v>
       </c>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.5">
-      <c r="A23" s="1" t="s">
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" ht="16.5">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="str">
-        <f>"Conn"&amp;C9&amp;"to"&amp;$B9</f>
+      <c r="C24" t="str">
+        <f>"Conn"&amp;C10&amp;"to"&amp;$B10</f>
         <v>ConnVNetCompAtoVNetCompZ</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" ref="D23:E23" si="8">"Conn"&amp;D9&amp;"to"&amp;$B9</f>
+      <c r="D24" t="str">
+        <f t="shared" ref="D24:E24" si="8">"Conn"&amp;D10&amp;"to"&amp;$B10</f>
         <v>ConnVNetCompBtoVNetCompZ</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="8"/>
         <v>ConnVNetCompCtoVNetCompZ</v>
       </c>
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5">
-      <c r="A24" s="1"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18" ht="16.5">
       <c r="A25" s="1"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="16.5">
       <c r="A26" s="1"/>
+      <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="1"/>
-      <c r="B28" t="str">
-        <f>IF(ISBLANK(B7),"",""""&amp;$A7&amp;""": { ""value"": """&amp;B7&amp;"""},")</f>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1"/>
+      <c r="B29" t="str">
+        <f>IF(ISBLANK(B8),"",""""&amp;$A8&amp;""": { ""value"": """&amp;B8&amp;"""}"&amp;IF(ISBLANK(B30),"",","))</f>
         <v>"location": { "value": "East US"},</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" ref="C28:E28" si="9">IF(ISBLANK(C7),"",""""&amp;$A7&amp;""": { ""value"": """&amp;C7&amp;"""},")</f>
+      <c r="C29" t="str">
+        <f t="shared" ref="C29:E44" si="9">IF(ISBLANK(C8),"",""""&amp;$A8&amp;""": { ""value"": """&amp;C8&amp;"""}"&amp;IF(ISBLANK(C30),"",","))</f>
         <v>"location": { "value": "East US"},</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="9"/>
         <v>"location": { "value": "North Central US"},</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="9"/>
         <v>"location": { "value": "South Central US"},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="B29" t="str">
-        <f t="shared" ref="B29:E29" si="10">IF(ISBLANK(B8),"",""""&amp;$A8&amp;""": { ""value"": """&amp;B8&amp;"""},")</f>
-        <v>"resourceGroup": { "value": "NetworkRGCompZ"},</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="10"/>
-        <v>"resourceGroup": { "value": "NetworkRGCompA"},</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="10"/>
-        <v>"resourceGroup": { "value": "NetworkRGCompB"},</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="10"/>
-        <v>"resourceGroup": { "value": "NetworkRGCompC"},</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="B30" t="str">
-        <f t="shared" ref="B30:E30" si="11">IF(ISBLANK(B9),"",""""&amp;$A9&amp;""": { ""value"": """&amp;B9&amp;"""},")</f>
-        <v>"virtualNetworkName": { "value": "VNetCompZ"},</v>
+        <f t="shared" ref="B30:B45" si="10">IF(ISBLANK(B9),"",""""&amp;$A9&amp;""": { ""value"": """&amp;B9&amp;"""}"&amp;IF(ISBLANK(B31),"",","))</f>
+        <v>"resourceGroup": { "value": "NetworkRGCompZ"},</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="11"/>
-        <v>"virtualNetworkName": { "value": "VNetCompA"},</v>
+        <f t="shared" si="9"/>
+        <v>"resourceGroup": { "value": "NetworkRGCompA"},</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="11"/>
-        <v>"virtualNetworkName": { "value": "VNetCompB"},</v>
+        <f t="shared" si="9"/>
+        <v>"resourceGroup": { "value": "NetworkRGCompB"},</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="11"/>
-        <v>"virtualNetworkName": { "value": "VNetCompC"},</v>
+        <f t="shared" si="9"/>
+        <v>"resourceGroup": { "value": "NetworkRGCompC"},</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="B31" t="str">
-        <f t="shared" ref="B31:E31" si="12">IF(ISBLANK(B10),"",""""&amp;$A10&amp;""": { ""value"": """&amp;B10&amp;"""},")</f>
-        <v>"addressSpace": { "value": "10.1.0.0/16"},</v>
+        <f t="shared" si="10"/>
+        <v>"virtualNetworkName": { "value": "VNetCompZ"},</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="12"/>
-        <v>"addressSpace": { "value": "10.10.0.0/16"},</v>
+        <f t="shared" si="9"/>
+        <v>"virtualNetworkName": { "value": "VNetCompA"},</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="12"/>
-        <v>"addressSpace": { "value": "10.20.0.0/16"},</v>
+        <f t="shared" si="9"/>
+        <v>"virtualNetworkName": { "value": "VNetCompB"},</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="12"/>
-        <v>"addressSpace": { "value": "10.30.0.0/16"},</v>
+        <f t="shared" si="9"/>
+        <v>"virtualNetworkName": { "value": "VNetCompC"},</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="B32" t="str">
-        <f t="shared" ref="B32:E32" si="13">IF(ISBLANK(B11),"",""""&amp;$A11&amp;""": { ""value"": """&amp;B11&amp;"""},")</f>
-        <v>"secGroup1Name": { "value": "SecGroupCompZFE"},</v>
+        <f t="shared" si="10"/>
+        <v>"addressSpace": { "value": "10.1.0.0/16"},</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="13"/>
-        <v>"secGroup1Name": { "value": "SecGroupCompAFE"},</v>
+        <f t="shared" si="9"/>
+        <v>"addressSpace": { "value": "10.10.0.0/16"},</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="13"/>
-        <v>"secGroup1Name": { "value": "SecGroupCompBFE"},</v>
+        <f t="shared" si="9"/>
+        <v>"addressSpace": { "value": "10.20.0.0/16"},</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="13"/>
-        <v>"secGroup1Name": { "value": "SecGroupCompCFE"},</v>
+        <f t="shared" si="9"/>
+        <v>"addressSpace": { "value": "10.30.0.0/16"},</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="str">
-        <f t="shared" ref="B33:E33" si="14">IF(ISBLANK(B12),"",""""&amp;$A12&amp;""": { ""value"": """&amp;B12&amp;"""},")</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"secGroup1Name": { "value": "SecGroupCompZFE"},</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="14"/>
-        <v>"secGroup2Name": { "value": "SecGroupCompABE"},</v>
+        <f t="shared" si="9"/>
+        <v>"secGroup1Name": { "value": "SecGroupCompAFE"},</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="14"/>
-        <v>"secGroup2Name": { "value": "SecGroupCompBBE"},</v>
+        <f t="shared" si="9"/>
+        <v>"secGroup1Name": { "value": "SecGroupCompBFE"},</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="14"/>
-        <v>"secGroup2Name": { "value": "SecGroupCompCBE"},</v>
+        <f t="shared" si="9"/>
+        <v>"secGroup1Name": { "value": "SecGroupCompCFE"},</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="B34" t="str">
-        <f t="shared" ref="B34:E34" si="15">IF(ISBLANK(B13),"",""""&amp;$A13&amp;""": { ""value"": """&amp;B13&amp;"""},")</f>
-        <v>"subnet1Name": { "value": "Core"},</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="15"/>
-        <v>"subnet1Name": { "value": "FrontEnd"},</v>
+        <f t="shared" si="9"/>
+        <v>"secGroup2Name": { "value": "SecGroupCompABE"},</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="15"/>
-        <v>"subnet1Name": { "value": "FrontEnd"},</v>
+        <f t="shared" si="9"/>
+        <v>"secGroup2Name": { "value": "SecGroupCompBBE"},</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="15"/>
-        <v>"subnet1Name": { "value": "FrontEnd"},</v>
+        <f t="shared" si="9"/>
+        <v>"secGroup2Name": { "value": "SecGroupCompCBE"},</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="str">
-        <f t="shared" ref="B35:E35" si="16">IF(ISBLANK(B14),"",""""&amp;$A14&amp;""": { ""value"": """&amp;B14&amp;"""},")</f>
-        <v>"subnet1AddrPrefix": { "value": "10.1.0.0/24"},</v>
+        <f t="shared" si="10"/>
+        <v>"subnet1Name": { "value": "Core"},</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="16"/>
-        <v>"subnet1AddrPrefix": { "value": "10.10.10.0/24"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet1Name": { "value": "FrontEnd"},</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="16"/>
-        <v>"subnet1AddrPrefix": { "value": "10.20.10.0/24"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet1Name": { "value": "FrontEnd"},</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="16"/>
-        <v>"subnet1AddrPrefix": { "value": "10.30.10.0/24"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet1Name": { "value": "FrontEnd"},</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" t="str">
-        <f t="shared" ref="B36:E36" si="17">IF(ISBLANK(B15),"",""""&amp;$A15&amp;""": { ""value"": """&amp;B15&amp;"""},")</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"subnet1AddrPrefix": { "value": "10.1.0.0/24"},</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="17"/>
-        <v>"subnet2Name": { "value": "BackEnd"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet1AddrPrefix": { "value": "10.10.10.0/24"},</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="17"/>
-        <v>"subnet2Name": { "value": "BackEnd"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet1AddrPrefix": { "value": "10.20.10.0/24"},</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="17"/>
-        <v>"subnet2Name": { "value": "BackEnd"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet1AddrPrefix": { "value": "10.30.10.0/24"},</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="str">
-        <f t="shared" ref="B37:E37" si="18">IF(ISBLANK(B16),"",""""&amp;$A16&amp;""": { ""value"": """&amp;B16&amp;"""},")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="18"/>
-        <v>"subnet2AddrPrefix": { "value": "10.10.20.0/24"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet2Name": { "value": "BackEnd"},</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="18"/>
-        <v>"subnet2AddrPrefix": { "value": "10.20.20.0/24"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet2Name": { "value": "BackEnd"},</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="18"/>
-        <v>"subnet2AddrPrefix": { "value": "10.30.20.0/24"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet2Name": { "value": "BackEnd"},</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="str">
-        <f t="shared" ref="B38:E38" si="19">IF(ISBLANK(B17),"",""""&amp;$A17&amp;""": { ""value"": """&amp;B17&amp;"""},")</f>
-        <v>"dnsAddress": { "value": "10.1.0.10"},</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="19"/>
-        <v>"dnsAddress": { "value": "10.1.0.10"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet2AddrPrefix": { "value": "10.10.20.0/24"},</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="19"/>
-        <v>"dnsAddress": { "value": "10.1.0.10"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet2AddrPrefix": { "value": "10.20.20.0/24"},</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="19"/>
-        <v>"dnsAddress": { "value": "10.1.0.10"},</v>
+        <f t="shared" si="9"/>
+        <v>"subnet2AddrPrefix": { "value": "10.30.20.0/24"},</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="str">
-        <f t="shared" ref="B39:E39" si="20">IF(ISBLANK(B18),"",""""&amp;$A18&amp;""": { ""value"": """&amp;B18&amp;"""},")</f>
-        <v>"gwSubnetAddrPrefix": { "value": "10.1.255.0/27"},</v>
+        <f t="shared" si="10"/>
+        <v>"dnsAddress": { "value": "10.1.0.10"},</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="20"/>
-        <v>"gwSubnetAddrPrefix": { "value": "10.10.255.0/27"},</v>
+        <f t="shared" si="9"/>
+        <v>"dnsAddress": { "value": "10.1.0.10"},</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="20"/>
-        <v>"gwSubnetAddrPrefix": { "value": "10.20.255.0/27"},</v>
+        <f t="shared" si="9"/>
+        <v>"dnsAddress": { "value": "10.1.0.10"},</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="20"/>
-        <v>"gwSubnetAddrPrefix": { "value": "10.30.255.0/27"},</v>
+        <f t="shared" si="9"/>
+        <v>"dnsAddress": { "value": "10.1.0.10"},</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="str">
-        <f t="shared" ref="B40:E40" si="21">IF(ISBLANK(B19),"",""""&amp;$A19&amp;""": { ""value"": """&amp;B19&amp;"""},")</f>
-        <v>"gatewayName": { "value": "VNetCompZGW"},</v>
+        <f t="shared" si="10"/>
+        <v>"gwSubnetAddrPrefix": { "value": "10.1.255.0/27"},</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="21"/>
-        <v>"gatewayName": { "value": "VNetCompAGW"},</v>
+        <f t="shared" si="9"/>
+        <v>"gwSubnetAddrPrefix": { "value": "10.10.255.0/27"},</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="21"/>
-        <v>"gatewayName": { "value": "VNetCompBGW"},</v>
+        <f t="shared" si="9"/>
+        <v>"gwSubnetAddrPrefix": { "value": "10.20.255.0/27"},</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="21"/>
-        <v>"gatewayName": { "value": "VNetCompCGW"},</v>
+        <f t="shared" si="9"/>
+        <v>"gwSubnetAddrPrefix": { "value": "10.30.255.0/27"},</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="str">
-        <f t="shared" ref="B41:E41" si="22">IF(ISBLANK(B20),"",""""&amp;$A20&amp;""": { ""value"": """&amp;B20&amp;"""},")</f>
-        <v>"gatewayPublicIPName": { "value": "VNetCompZGWIP"},</v>
+        <f t="shared" si="10"/>
+        <v>"gatewayName": { "value": "VNetCompZGW"},</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="22"/>
-        <v>"gatewayPublicIPName": { "value": "VNetCompAGWIP"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayName": { "value": "VNetCompAGW"},</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="22"/>
-        <v>"gatewayPublicIPName": { "value": "VNetCompBGWIP"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayName": { "value": "VNetCompBGW"},</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="22"/>
-        <v>"gatewayPublicIPName": { "value": "VNetCompCGWIP"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayName": { "value": "VNetCompCGW"},</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="str">
-        <f t="shared" ref="B42:E42" si="23">IF(ISBLANK(B21),"",""""&amp;$A21&amp;""": { ""value"": """&amp;B21&amp;"""},")</f>
-        <v>"gatewayIPConf": { "value": "VNetCompZGWIPConf"},</v>
+        <f t="shared" si="10"/>
+        <v>"gatewayPublicIPName": { "value": "VNetCompZGWIP"},</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="23"/>
-        <v>"gatewayIPConf": { "value": "VNetCompAGWIPConf"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayPublicIPName": { "value": "VNetCompAGWIP"},</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="23"/>
-        <v>"gatewayIPConf": { "value": "VNetCompBGWIPConf"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayPublicIPName": { "value": "VNetCompBGWIP"},</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="23"/>
-        <v>"gatewayIPConf": { "value": "VNetCompCGWIPConf"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayPublicIPName": { "value": "VNetCompCGWIP"},</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="str">
-        <f t="shared" ref="B43:E43" si="24">IF(ISBLANK(B22),"",""""&amp;$A22&amp;""": { ""value"": """&amp;B22&amp;"""},")</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>"gatewayIPConf": { "value": "VNetCompZGWIPConf"},</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="24"/>
-        <v>"conn1Name": { "value": "ConnVNetCompZtoVNetCompA"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayIPConf": { "value": "VNetCompAGWIPConf"},</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="24"/>
-        <v>"conn1Name": { "value": "ConnVNetCompZtoVNetCompB"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayIPConf": { "value": "VNetCompBGWIPConf"},</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="24"/>
-        <v>"conn1Name": { "value": "ConnVNetCompZtoVNetCompC"},</v>
+        <f t="shared" si="9"/>
+        <v>"gatewayIPConf": { "value": "VNetCompCGWIPConf"},</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="str">
-        <f t="shared" ref="B44:E44" si="25">IF(ISBLANK(B23),"",""""&amp;$A23&amp;""": { ""value"": """&amp;B23&amp;"""},")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="25"/>
-        <v>"conn2Name": { "value": "ConnVNetCompAtoVNetCompZ"},</v>
+        <f t="shared" si="9"/>
+        <v>"conn1Name": { "value": "ConnVNetCompZtoVNetCompA"},</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="25"/>
-        <v>"conn2Name": { "value": "ConnVNetCompBtoVNetCompZ"},</v>
+        <f t="shared" si="9"/>
+        <v>"conn1Name": { "value": "ConnVNetCompZtoVNetCompB"},</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="25"/>
-        <v>"conn2Name": { "value": "ConnVNetCompCtoVNetCompZ"},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="5" t="s">
-        <v>38</v>
+        <f t="shared" si="9"/>
+        <v>"conn1Name": { "value": "ConnVNetCompZtoVNetCompC"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" ref="C45" si="11">IF(ISBLANK(C24),"",""""&amp;$A24&amp;""": { ""value"": """&amp;C24&amp;"""}"&amp;IF(ISBLANK(C46),"",","))</f>
+        <v>"conn2Name": { "value": "ConnVNetCompAtoVNetCompZ"}</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" ref="D45" si="12">IF(ISBLANK(D24),"",""""&amp;$A24&amp;""": { ""value"": """&amp;D24&amp;"""}"&amp;IF(ISBLANK(D46),"",","))</f>
+        <v>"conn2Name": { "value": "ConnVNetCompBtoVNetCompZ"}</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ref="E45" si="13">IF(ISBLANK(E24),"",""""&amp;$A24&amp;""": { ""value"": """&amp;E24&amp;"""}"&amp;IF(ISBLANK(E46),"",","))</f>
+        <v>"conn2Name": { "value": "ConnVNetCompCtoVNetCompZ"}</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="B48" t="str">
-        <f>IF(ISBLANK(B7),"","$"&amp;$A7&amp;" = """&amp;B7&amp;"""")</f>
-        <v>$location = "East US"</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" ref="C48:E48" si="26">IF(ISBLANK(C7),"","$"&amp;$A7&amp;" = """&amp;C7&amp;"""")</f>
-        <v>$location = "East US"</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="26"/>
-        <v>$location = "North Central US"</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="26"/>
-        <v>$location = "South Central US"</v>
+      <c r="A48" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="str">
-        <f t="shared" ref="B49:E64" si="27">IF(ISBLANK(B8),"","$"&amp;$A8&amp;" = """&amp;B8&amp;"""")</f>
-        <v>$resourceGroup = "NetworkRGCompZ"</v>
+        <f>IF(ISBLANK(B8),"","$"&amp;$A8&amp;" = '"&amp;B8&amp;"'")</f>
+        <v>$location = 'East US'</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="27"/>
-        <v>$resourceGroup = "NetworkRGCompA"</v>
+        <f t="shared" ref="C49:E49" si="14">IF(ISBLANK(C8),"","$"&amp;$A8&amp;" = '"&amp;C8&amp;"'")</f>
+        <v>$location = 'East US'</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="27"/>
-        <v>$resourceGroup = "NetworkRGCompB"</v>
+        <f t="shared" si="14"/>
+        <v>$location = 'North Central US'</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="27"/>
-        <v>$resourceGroup = "NetworkRGCompC"</v>
+        <f t="shared" si="14"/>
+        <v>$location = 'South Central US'</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="str">
-        <f t="shared" si="27"/>
-        <v>$virtualNetworkName = "VNetCompZ"</v>
+        <f t="shared" ref="B50:E50" si="15">IF(ISBLANK(B9),"","$"&amp;$A9&amp;" = '"&amp;B9&amp;"'")</f>
+        <v>$resourceGroup = 'NetworkRGCompZ'</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="27"/>
-        <v>$virtualNetworkName = "VNetCompA"</v>
+        <f t="shared" si="15"/>
+        <v>$resourceGroup = 'NetworkRGCompA'</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="27"/>
-        <v>$virtualNetworkName = "VNetCompB"</v>
+        <f t="shared" si="15"/>
+        <v>$resourceGroup = 'NetworkRGCompB'</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="27"/>
-        <v>$virtualNetworkName = "VNetCompC"</v>
+        <f t="shared" si="15"/>
+        <v>$resourceGroup = 'NetworkRGCompC'</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="str">
-        <f t="shared" si="27"/>
-        <v>$addressSpace = "10.1.0.0/16"</v>
+        <f t="shared" ref="B51:E51" si="16">IF(ISBLANK(B10),"","$"&amp;$A10&amp;" = '"&amp;B10&amp;"'")</f>
+        <v>$virtualNetworkName = 'VNetCompZ'</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="27"/>
-        <v>$addressSpace = "10.10.0.0/16"</v>
+        <f t="shared" si="16"/>
+        <v>$virtualNetworkName = 'VNetCompA'</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="27"/>
-        <v>$addressSpace = "10.20.0.0/16"</v>
+        <f t="shared" si="16"/>
+        <v>$virtualNetworkName = 'VNetCompB'</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="27"/>
-        <v>$addressSpace = "10.30.0.0/16"</v>
+        <f t="shared" si="16"/>
+        <v>$virtualNetworkName = 'VNetCompC'</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="str">
-        <f t="shared" si="27"/>
-        <v>$secGroup1Name = "SecGroupCompZFE"</v>
+        <f t="shared" ref="B52:E52" si="17">IF(ISBLANK(B11),"","$"&amp;$A11&amp;" = '"&amp;B11&amp;"'")</f>
+        <v>$addressSpace = '10.1.0.0/16'</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="27"/>
-        <v>$secGroup1Name = "SecGroupCompAFE"</v>
+        <f t="shared" si="17"/>
+        <v>$addressSpace = '10.10.0.0/16'</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="27"/>
-        <v>$secGroup1Name = "SecGroupCompBFE"</v>
+        <f t="shared" si="17"/>
+        <v>$addressSpace = '10.20.0.0/16'</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="27"/>
-        <v>$secGroup1Name = "SecGroupCompCFE"</v>
+        <f t="shared" si="17"/>
+        <v>$addressSpace = '10.30.0.0/16'</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ref="B53:E53" si="18">IF(ISBLANK(B12),"","$"&amp;$A12&amp;" = '"&amp;B12&amp;"'")</f>
+        <v>$secGroup1Name = 'SecGroupCompZFE'</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="27"/>
-        <v>$secGroup2Name = "SecGroupCompABE"</v>
+        <f t="shared" si="18"/>
+        <v>$secGroup1Name = 'SecGroupCompAFE'</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="27"/>
-        <v>$secGroup2Name = "SecGroupCompBBE"</v>
+        <f t="shared" si="18"/>
+        <v>$secGroup1Name = 'SecGroupCompBFE'</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="27"/>
-        <v>$secGroup2Name = "SecGroupCompCBE"</v>
+        <f t="shared" si="18"/>
+        <v>$secGroup1Name = 'SecGroupCompCFE'</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet1Name = "Core"</v>
+        <f t="shared" ref="B54:E54" si="19">IF(ISBLANK(B13),"","$"&amp;$A13&amp;" = '"&amp;B13&amp;"'")</f>
+        <v/>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet1Name = "FrontEnd"</v>
+        <f t="shared" si="19"/>
+        <v>$secGroup2Name = 'SecGroupCompABE'</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet1Name = "FrontEnd"</v>
+        <f t="shared" si="19"/>
+        <v>$secGroup2Name = 'SecGroupCompBBE'</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet1Name = "FrontEnd"</v>
+        <f t="shared" si="19"/>
+        <v>$secGroup2Name = 'SecGroupCompCBE'</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet1AddrPrefix = "10.1.0.0/24"</v>
+        <f t="shared" ref="B55:E55" si="20">IF(ISBLANK(B14),"","$"&amp;$A14&amp;" = '"&amp;B14&amp;"'")</f>
+        <v>$subnet1Name = 'Core'</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet1AddrPrefix = "10.10.10.0/24"</v>
+        <f t="shared" si="20"/>
+        <v>$subnet1Name = 'FrontEnd'</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet1AddrPrefix = "10.20.10.0/24"</v>
+        <f t="shared" si="20"/>
+        <v>$subnet1Name = 'FrontEnd'</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet1AddrPrefix = "10.30.10.0/24"</v>
+        <f t="shared" si="20"/>
+        <v>$subnet1Name = 'FrontEnd'</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ref="B56:E56" si="21">IF(ISBLANK(B15),"","$"&amp;$A15&amp;" = '"&amp;B15&amp;"'")</f>
+        <v>$subnet1AddrPrefix = '10.1.0.0/24'</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet2Name = "BackEnd"</v>
+        <f t="shared" si="21"/>
+        <v>$subnet1AddrPrefix = '10.10.10.0/24'</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet2Name = "BackEnd"</v>
+        <f t="shared" si="21"/>
+        <v>$subnet1AddrPrefix = '10.20.10.0/24'</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet2Name = "BackEnd"</v>
+        <f t="shared" si="21"/>
+        <v>$subnet1AddrPrefix = '10.30.10.0/24'</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="B57:E57" si="22">IF(ISBLANK(B16),"","$"&amp;$A16&amp;" = '"&amp;B16&amp;"'")</f>
         <v/>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet2AddrPrefix = "10.10.20.0/24"</v>
+        <f t="shared" si="22"/>
+        <v>$subnet2Name = 'BackEnd'</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet2AddrPrefix = "10.20.20.0/24"</v>
+        <f t="shared" si="22"/>
+        <v>$subnet2Name = 'BackEnd'</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="27"/>
-        <v>$subnet2AddrPrefix = "10.30.20.0/24"</v>
+        <f t="shared" si="22"/>
+        <v>$subnet2Name = 'BackEnd'</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="str">
-        <f t="shared" si="27"/>
-        <v>$dnsAddress = "10.1.0.10"</v>
+        <f t="shared" ref="B58:E58" si="23">IF(ISBLANK(B17),"","$"&amp;$A17&amp;" = '"&amp;B17&amp;"'")</f>
+        <v/>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="27"/>
-        <v>$dnsAddress = "10.1.0.10"</v>
+        <f t="shared" si="23"/>
+        <v>$subnet2AddrPrefix = '10.10.20.0/24'</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="27"/>
-        <v>$dnsAddress = "10.1.0.10"</v>
+        <f t="shared" si="23"/>
+        <v>$subnet2AddrPrefix = '10.20.20.0/24'</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="27"/>
-        <v>$dnsAddress = "10.1.0.10"</v>
+        <f t="shared" si="23"/>
+        <v>$subnet2AddrPrefix = '10.30.20.0/24'</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="str">
-        <f t="shared" si="27"/>
-        <v>$gwSubnetAddrPrefix = "10.1.255.0/27"</v>
+        <f t="shared" ref="B59:E59" si="24">IF(ISBLANK(B18),"","$"&amp;$A18&amp;" = '"&amp;B18&amp;"'")</f>
+        <v>$dnsAddress = '10.1.0.10'</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="27"/>
-        <v>$gwSubnetAddrPrefix = "10.10.255.0/27"</v>
+        <f t="shared" si="24"/>
+        <v>$dnsAddress = '10.1.0.10'</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="27"/>
-        <v>$gwSubnetAddrPrefix = "10.20.255.0/27"</v>
+        <f t="shared" si="24"/>
+        <v>$dnsAddress = '10.1.0.10'</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="27"/>
-        <v>$gwSubnetAddrPrefix = "10.30.255.0/27"</v>
+        <f t="shared" si="24"/>
+        <v>$dnsAddress = '10.1.0.10'</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayName = "VNetCompZGW"</v>
+        <f t="shared" ref="B60:E60" si="25">IF(ISBLANK(B19),"","$"&amp;$A19&amp;" = '"&amp;B19&amp;"'")</f>
+        <v>$gwSubnetAddrPrefix = '10.1.255.0/27'</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayName = "VNetCompAGW"</v>
+        <f t="shared" si="25"/>
+        <v>$gwSubnetAddrPrefix = '10.10.255.0/27'</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayName = "VNetCompBGW"</v>
+        <f t="shared" si="25"/>
+        <v>$gwSubnetAddrPrefix = '10.20.255.0/27'</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayName = "VNetCompCGW"</v>
+        <f t="shared" si="25"/>
+        <v>$gwSubnetAddrPrefix = '10.30.255.0/27'</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayPublicIPName = "VNetCompZGWIP"</v>
+        <f t="shared" ref="B61:E61" si="26">IF(ISBLANK(B20),"","$"&amp;$A20&amp;" = '"&amp;B20&amp;"'")</f>
+        <v>$gatewayName = 'VNetCompZGW'</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayPublicIPName = "VNetCompAGWIP"</v>
+        <f t="shared" si="26"/>
+        <v>$gatewayName = 'VNetCompAGW'</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayPublicIPName = "VNetCompBGWIP"</v>
+        <f t="shared" si="26"/>
+        <v>$gatewayName = 'VNetCompBGW'</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayPublicIPName = "VNetCompCGWIP"</v>
+        <f t="shared" si="26"/>
+        <v>$gatewayName = 'VNetCompCGW'</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="str">
-        <f t="shared" si="27"/>
-        <v>$gatewayIPConf = "VNetCompZGWIPConf"</v>
+        <f t="shared" ref="B62:E62" si="27">IF(ISBLANK(B21),"","$"&amp;$A21&amp;" = '"&amp;B21&amp;"'")</f>
+        <v>$gatewayPublicIPName = 'VNetCompZGWIP'</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="27"/>
-        <v>$gatewayIPConf = "VNetCompAGWIPConf"</v>
+        <v>$gatewayPublicIPName = 'VNetCompAGWIP'</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="27"/>
-        <v>$gatewayIPConf = "VNetCompBGWIPConf"</v>
+        <v>$gatewayPublicIPName = 'VNetCompBGWIP'</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="27"/>
-        <v>$gatewayIPConf = "VNetCompCGWIPConf"</v>
+        <v>$gatewayPublicIPName = 'VNetCompCGWIP'</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+        <f t="shared" ref="B63:E63" si="28">IF(ISBLANK(B22),"","$"&amp;$A22&amp;" = '"&amp;B22&amp;"'")</f>
+        <v>$gatewayIPConf = 'VNetCompZGWIPConf'</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="27"/>
-        <v>$conn1Name = "ConnVNetCompZtoVNetCompA"</v>
+        <f t="shared" si="28"/>
+        <v>$gatewayIPConf = 'VNetCompAGWIPConf'</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="27"/>
-        <v>$conn1Name = "ConnVNetCompZtoVNetCompB"</v>
+        <f t="shared" si="28"/>
+        <v>$gatewayIPConf = 'VNetCompBGWIPConf'</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="27"/>
-        <v>$conn1Name = "ConnVNetCompZtoVNetCompC"</v>
+        <f t="shared" si="28"/>
+        <v>$gatewayIPConf = 'VNetCompCGWIPConf'</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="B64:E64" si="29">IF(ISBLANK(B23),"","$"&amp;$A23&amp;" = '"&amp;B23&amp;"'")</f>
         <v/>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="27"/>
-        <v>$conn2Name = "ConnVNetCompAtoVNetCompZ"</v>
+        <f t="shared" si="29"/>
+        <v>$conn1Name = 'ConnVNetCompZtoVNetCompA'</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="27"/>
-        <v>$conn2Name = "ConnVNetCompBtoVNetCompZ"</v>
+        <f t="shared" si="29"/>
+        <v>$conn1Name = 'ConnVNetCompZtoVNetCompB'</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="27"/>
-        <v>$conn2Name = "ConnVNetCompCtoVNetCompZ"</v>
+        <f t="shared" si="29"/>
+        <v>$conn1Name = 'ConnVNetCompZtoVNetCompC'</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" t="str">
+        <f t="shared" ref="B65:E65" si="30">IF(ISBLANK(B24),"","$"&amp;$A24&amp;" = '"&amp;B24&amp;"'")</f>
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="30"/>
+        <v>$conn2Name = 'ConnVNetCompAtoVNetCompZ'</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="30"/>
+        <v>$conn2Name = 'ConnVNetCompBtoVNetCompZ'</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="30"/>
+        <v>$conn2Name = 'ConnVNetCompCtoVNetCompZ'</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" t="str">
+        <f>IF(ISBLANK(B8),"","'"&amp;$A8&amp;"'='"&amp;B8&amp;"'"&amp;IF(ISBLANK(B70),"",";"))</f>
+        <v>'location'='East US';</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:E82" si="31">IF(ISBLANK(C8),"","'"&amp;$A8&amp;"'='"&amp;C8&amp;"'"&amp;IF(ISBLANK(C70),"",";"))</f>
+        <v>'location'='East US';</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="31"/>
+        <v>'location'='North Central US';</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="31"/>
+        <v>'location'='South Central US';</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="str">
+        <f t="shared" ref="B70:B82" si="32">IF(ISBLANK(B9),"","'"&amp;$A9&amp;"'='"&amp;B9&amp;"'"&amp;IF(ISBLANK(B71),"",";"))</f>
+        <v>'resourceGroup'='NetworkRGCompZ';</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="31"/>
+        <v>'resourceGroup'='NetworkRGCompA';</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="31"/>
+        <v>'resourceGroup'='NetworkRGCompB';</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="31"/>
+        <v>'resourceGroup'='NetworkRGCompC';</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" t="str">
+        <f t="shared" si="32"/>
+        <v>'virtualNetworkName'='VNetCompZ';</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="31"/>
+        <v>'virtualNetworkName'='VNetCompA';</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="31"/>
+        <v>'virtualNetworkName'='VNetCompB';</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="31"/>
+        <v>'virtualNetworkName'='VNetCompC';</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="B72" t="str">
+        <f t="shared" si="32"/>
+        <v>'addressSpace'='10.1.0.0/16';</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="31"/>
+        <v>'addressSpace'='10.10.0.0/16';</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="31"/>
+        <v>'addressSpace'='10.20.0.0/16';</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="31"/>
+        <v>'addressSpace'='10.30.0.0/16';</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="str">
+        <f t="shared" si="32"/>
+        <v>'secGroup1Name'='SecGroupCompZFE';</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="31"/>
+        <v>'secGroup1Name'='SecGroupCompAFE';</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="31"/>
+        <v>'secGroup1Name'='SecGroupCompBFE';</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="31"/>
+        <v>'secGroup1Name'='SecGroupCompCFE';</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="31"/>
+        <v>'secGroup2Name'='SecGroupCompABE';</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="31"/>
+        <v>'secGroup2Name'='SecGroupCompBBE';</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="31"/>
+        <v>'secGroup2Name'='SecGroupCompCBE';</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" t="str">
+        <f t="shared" si="32"/>
+        <v>'subnet1Name'='Core';</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet1Name'='FrontEnd';</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet1Name'='FrontEnd';</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet1Name'='FrontEnd';</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="B76" t="str">
+        <f t="shared" si="32"/>
+        <v>'subnet1AddrPrefix'='10.1.0.0/24';</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet1AddrPrefix'='10.10.10.0/24';</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet1AddrPrefix'='10.20.10.0/24';</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet1AddrPrefix'='10.30.10.0/24';</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet2Name'='BackEnd';</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet2Name'='BackEnd';</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet2Name'='BackEnd';</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="B78" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet2AddrPrefix'='10.10.20.0/24';</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet2AddrPrefix'='10.20.20.0/24';</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="31"/>
+        <v>'subnet2AddrPrefix'='10.30.20.0/24';</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" t="str">
+        <f t="shared" si="32"/>
+        <v>'dnsAddress'='10.1.0.10';</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="31"/>
+        <v>'dnsAddress'='10.1.0.10';</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="31"/>
+        <v>'dnsAddress'='10.1.0.10';</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="31"/>
+        <v>'dnsAddress'='10.1.0.10';</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="str">
+        <f t="shared" si="32"/>
+        <v>'gwSubnetAddrPrefix'='10.1.255.0/27';</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="31"/>
+        <v>'gwSubnetAddrPrefix'='10.10.255.0/27';</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="31"/>
+        <v>'gwSubnetAddrPrefix'='10.20.255.0/27';</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="31"/>
+        <v>'gwSubnetAddrPrefix'='10.30.255.0/27';</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="B81" t="str">
+        <f t="shared" si="32"/>
+        <v>'gatewayName'='VNetCompZGW';</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="31"/>
+        <v>'gatewayName'='VNetCompAGW';</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="31"/>
+        <v>'gatewayName'='VNetCompBGW';</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="31"/>
+        <v>'gatewayName'='VNetCompCGW';</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="B82" t="str">
+        <f t="shared" si="32"/>
+        <v>'gatewayPublicIPName'='VNetCompZGWIP';</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="31"/>
+        <v>'gatewayPublicIPName'='VNetCompAGWIP';</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="31"/>
+        <v>'gatewayPublicIPName'='VNetCompBGWIP';</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="31"/>
+        <v>'gatewayPublicIPName'='VNetCompCGWIP';</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="B83" t="str">
+        <f>IF(ISBLANK(B22),"","'"&amp;$A22&amp;"'='"&amp;B22&amp;"'"&amp;IF(ISBLANK(#REF!),"",";"))</f>
+        <v>'gatewayIPConf'='VNetCompZGWIPConf';</v>
+      </c>
+      <c r="C83" t="str">
+        <f>IF(ISBLANK(C22),"","'"&amp;$A22&amp;"'='"&amp;C22&amp;"'"&amp;IF(ISBLANK(#REF!),"",";"))</f>
+        <v>'gatewayIPConf'='VNetCompAGWIPConf';</v>
+      </c>
+      <c r="D83" t="str">
+        <f>IF(ISBLANK(D22),"","'"&amp;$A22&amp;"'='"&amp;D22&amp;"'"&amp;IF(ISBLANK(#REF!),"",";"))</f>
+        <v>'gatewayIPConf'='VNetCompBGWIPConf';</v>
+      </c>
+      <c r="E83" t="str">
+        <f>IF(ISBLANK(E22),"","'"&amp;$A22&amp;"'='"&amp;E22&amp;"'"&amp;IF(ISBLANK(#REF!),"",";"))</f>
+        <v>'gatewayIPConf'='VNetCompCGWIPConf';</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="C86" t="str">
+        <f>IF(ISBLANK(C9),"","$"&amp;$A9&amp;" = '"&amp;C9&amp;"'")</f>
+        <v>$resourceGroup = 'NetworkRGCompA'</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" ref="D86:E86" si="33">IF(ISBLANK(D9),"","$"&amp;$A9&amp;" = '"&amp;D9&amp;"'")</f>
+        <v>$resourceGroup = 'NetworkRGCompB'</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="33"/>
+        <v>$resourceGroup = 'NetworkRGCompC'</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="str">
+        <f>A2</f>
+        <v>Shared Key</v>
+      </c>
+      <c r="B87" t="str">
+        <f>IF(ISBLANK(B24),"","'"&amp;$A24&amp;"'='"&amp;B24&amp;"'"&amp;IF(ISBLANK(B88),"",";"))</f>
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <f>"'"&amp;$A87&amp;"'='"&amp;$B2&amp;"';"</f>
+        <v>'Shared Key'='DXCDynamics!2017';</v>
+      </c>
+      <c r="D87" t="str">
+        <f>"'"&amp;$A87&amp;"'='"&amp;$B2&amp;"';"</f>
+        <v>'Shared Key'='DXCDynamics!2017';</v>
+      </c>
+      <c r="E87" t="str">
+        <f>"'"&amp;$A87&amp;"'='"&amp;$B2&amp;"';"</f>
+        <v>'Shared Key'='DXCDynamics!2017';</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" t="str">
+        <f>"'"&amp;$A88&amp;"'='"&amp;$B8&amp;"';"</f>
+        <v>'location1'='East US';</v>
+      </c>
+      <c r="D88" t="str">
+        <f>"'"&amp;$A88&amp;"'='"&amp;$B8&amp;"';"</f>
+        <v>'location1'='East US';</v>
+      </c>
+      <c r="E88" t="str">
+        <f>"'"&amp;$A88&amp;"'='"&amp;$B8&amp;"';"</f>
+        <v>'location1'='East US';</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C89" t="str">
+        <f>"'"&amp;$A89&amp;"'='"&amp;C8&amp;"';"</f>
+        <v>'location2'='East US';</v>
+      </c>
+      <c r="D89" t="str">
+        <f>"'"&amp;$A89&amp;"'='"&amp;D8&amp;"';"</f>
+        <v>'location2'='North Central US';</v>
+      </c>
+      <c r="E89" t="str">
+        <f>"'"&amp;$A89&amp;"'='"&amp;E8&amp;"';"</f>
+        <v>'location2'='South Central US';</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="str">
+        <f>"'"&amp;$A90&amp;"'='"&amp;B20&amp;"';"</f>
+        <v>'gateway1Name'='VNetCompZGW';</v>
+      </c>
+      <c r="D90" t="str">
+        <f>"'"&amp;$A90&amp;"'='"&amp;C20&amp;"';"</f>
+        <v>'gateway1Name'='VNetCompAGW';</v>
+      </c>
+      <c r="E90" t="str">
+        <f>"'"&amp;$A90&amp;"'='"&amp;D20&amp;"';"</f>
+        <v>'gateway1Name'='VNetCompBGW';</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" t="str">
+        <f>"'"&amp;$A91&amp;"'='"&amp;C20&amp;"';"</f>
+        <v>'gateway2Name'='VNetCompAGW';</v>
+      </c>
+      <c r="D91" t="str">
+        <f>"'"&amp;$A91&amp;"'='"&amp;D20&amp;"';"</f>
+        <v>'gateway2Name'='VNetCompBGW';</v>
+      </c>
+      <c r="E91" t="str">
+        <f>"'"&amp;$A91&amp;"'='"&amp;E20&amp;"';"</f>
+        <v>'gateway2Name'='VNetCompCGW';</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="str">
+        <f>A23</f>
+        <v>conn1Name</v>
+      </c>
+      <c r="C92" t="str">
+        <f>"'"&amp;$A92&amp;"'='"&amp;C23&amp;"';"</f>
+        <v>'conn1Name'='ConnVNetCompZtoVNetCompA';</v>
+      </c>
+      <c r="D92" t="str">
+        <f>"'"&amp;$A92&amp;"'='"&amp;D23&amp;"';"</f>
+        <v>'conn1Name'='ConnVNetCompZtoVNetCompB';</v>
+      </c>
+      <c r="E92" t="str">
+        <f>"'"&amp;$A92&amp;"'='"&amp;E23&amp;"';"</f>
+        <v>'conn1Name'='ConnVNetCompZtoVNetCompC';</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="str">
+        <f>A24</f>
+        <v>conn2Name</v>
+      </c>
+      <c r="C93" t="str">
+        <f>"'"&amp;$A93&amp;"'='"&amp;C24</f>
+        <v>'conn2Name'='ConnVNetCompAtoVNetCompZ</v>
+      </c>
+      <c r="D93" t="str">
+        <f>"'"&amp;$A93&amp;"'='"&amp;D24</f>
+        <v>'conn2Name'='ConnVNetCompBtoVNetCompZ</v>
+      </c>
+      <c r="E93" t="str">
+        <f>"'"&amp;$A93&amp;"'='"&amp;E24</f>
+        <v>'conn2Name'='ConnVNetCompCtoVNetCompZ</v>
       </c>
     </row>
   </sheetData>
@@ -1782,292 +2271,292 @@
   <sheetData>
     <row r="7" spans="1:9" ht="16.5" thickBot="1">
       <c r="A7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>100</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G8" s="7">
         <v>123</v>
       </c>
       <c r="H8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="8">
         <v>101</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G9" s="8">
         <v>135</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7">
         <v>102</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="7">
         <v>464</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="8">
         <v>103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G11" s="8">
         <v>389</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="7">
         <v>104</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G12" s="7">
         <v>3268</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8">
         <v>105</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G13" s="8">
         <v>53</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7">
         <v>106</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="7">
         <v>88</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="8">
         <v>107</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G15" s="8">
         <v>445</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="7">
         <v>108</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2577,7 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>742950</xdr:colOff>
+                <xdr:colOff>781050</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
@@ -2106,315 +2595,598 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I12"/>
+  <dimension ref="A3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="D4" s="10">
+        <v>300</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>123</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="10">
+        <f>D4+1</f>
+        <v>301</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>135</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10">
+        <f>D5+1</f>
+        <v>302</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10">
+        <v>464</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="10">
+        <f>D6+1</f>
+        <v>303</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10">
+        <v>389</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="10">
+        <f>D7+1</f>
+        <v>304</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3268</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10">
+        <f>D8+1</f>
+        <v>305</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>53</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10">
+        <f>D9+1</f>
+        <v>306</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>88</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="10">
+        <f>D10+1</f>
+        <v>307</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="10">
+        <v>445</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="10">
+        <f>D11+1</f>
+        <v>308</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="10">
+        <v>120</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1433</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="10">
+        <v>500</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="10">
+        <v>100</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="10">
+        <v>80</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="10">
+        <v>110</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="10">
+        <v>433</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="10">
         <v>200</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="10">
-        <v>123</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="E17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="10">
+        <v>3889</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="10">
-        <v>201</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="11">
-        <v>135</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="10">
-        <v>202</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="10">
-        <v>464</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="10">
-        <v>203</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="11">
-        <v>389</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="10">
-        <v>204</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="10">
-        <v>3268</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="10">
-        <v>205</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="11">
-        <v>53</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="10">
-        <v>206</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="10">
-        <v>88</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="10">
-        <v>207</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="11">
-        <v>445</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="10">
-        <v>208</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>52</v>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IF(ISBLANK('VNET Parms'!B15),"",'VNET Parms'!B15)</f>
+        <v>10.1.0.0/24</v>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(ISBLANK('VNET Parms'!C15),"",'VNET Parms'!C15)</f>
+        <v>10.10.10.0/24</v>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(ISBLANK('VNET Parms'!D15),"",'VNET Parms'!D15)</f>
+        <v>10.20.10.0/24</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(ISBLANK('VNET Parms'!E15),"",'VNET Parms'!E15)</f>
+        <v>10.30.10.0/24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IF(ISBLANK('VNET Parms'!B17),"",'VNET Parms'!B17)</f>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f>IF(ISBLANK('VNET Parms'!C17),"",'VNET Parms'!C17)</f>
+        <v>10.10.20.0/24</v>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(ISBLANK('VNET Parms'!D17),"",'VNET Parms'!D17)</f>
+        <v>10.20.20.0/24</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(ISBLANK('VNET Parms'!E17),"",'VNET Parms'!E17)</f>
+        <v>10.30.20.0/24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I12"/>
+  <autoFilter ref="A3:J12">
+    <sortState ref="A4:J17">
+      <sortCondition ref="A3:A12"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CompartmentMap.xlsx
+++ b/CompartmentMap.xlsx
@@ -281,9 +281,6 @@
     <t>location2</t>
   </si>
   <si>
-    <t>Shared Key</t>
-  </si>
-  <si>
     <t>DXCDynamics!2017</t>
   </si>
   <si>
@@ -291,6 +288,9 @@
   </si>
   <si>
     <t>gateway2Name</t>
+  </si>
+  <si>
+    <t>sharedKey</t>
   </si>
 </sst>
 </file>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -766,10 +766,10 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2117,7 +2117,7 @@
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="str">
         <f>A2</f>
-        <v>Shared Key</v>
+        <v>sharedKey</v>
       </c>
       <c r="B87" t="str">
         <f>IF(ISBLANK(B24),"","'"&amp;$A24&amp;"'='"&amp;B24&amp;"'"&amp;IF(ISBLANK(B88),"",";"))</f>
@@ -2125,15 +2125,15 @@
       </c>
       <c r="C87" t="str">
         <f>"'"&amp;$A87&amp;"'='"&amp;$B2&amp;"';"</f>
-        <v>'Shared Key'='DXCDynamics!2017';</v>
+        <v>'sharedKey'='DXCDynamics!2017';</v>
       </c>
       <c r="D87" t="str">
         <f>"'"&amp;$A87&amp;"'='"&amp;$B2&amp;"';"</f>
-        <v>'Shared Key'='DXCDynamics!2017';</v>
+        <v>'sharedKey'='DXCDynamics!2017';</v>
       </c>
       <c r="E87" t="str">
         <f>"'"&amp;$A87&amp;"'='"&amp;$B2&amp;"';"</f>
-        <v>'Shared Key'='DXCDynamics!2017';</v>
+        <v>'sharedKey'='DXCDynamics!2017';</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2172,7 +2172,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" t="str">
         <f>"'"&amp;$A90&amp;"'='"&amp;B20&amp;"';"</f>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" t="str">
         <f>"'"&amp;$A91&amp;"'='"&amp;C20&amp;"';"</f>
@@ -2228,16 +2228,16 @@
         <v>conn2Name</v>
       </c>
       <c r="C93" t="str">
-        <f>"'"&amp;$A93&amp;"'='"&amp;C24</f>
-        <v>'conn2Name'='ConnVNetCompAtoVNetCompZ</v>
+        <f>"'"&amp;$A93&amp;"'='"&amp;C24&amp;"'"</f>
+        <v>'conn2Name'='ConnVNetCompAtoVNetCompZ'</v>
       </c>
       <c r="D93" t="str">
-        <f>"'"&amp;$A93&amp;"'='"&amp;D24</f>
-        <v>'conn2Name'='ConnVNetCompBtoVNetCompZ</v>
+        <f t="shared" ref="D93:E93" si="34">"'"&amp;$A93&amp;"'='"&amp;D24&amp;"'"</f>
+        <v>'conn2Name'='ConnVNetCompBtoVNetCompZ'</v>
       </c>
       <c r="E93" t="str">
-        <f>"'"&amp;$A93&amp;"'='"&amp;E24</f>
-        <v>'conn2Name'='ConnVNetCompCtoVNetCompZ</v>
+        <f t="shared" si="34"/>
+        <v>'conn2Name'='ConnVNetCompCtoVNetCompZ'</v>
       </c>
     </row>
   </sheetData>

--- a/CompartmentMap.xlsx
+++ b/CompartmentMap.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VNET Parms" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
     <t>[parameters('feAddrPrefix')]</t>
   </si>
   <si>
-    <t>y</t>
+    <t>FE/BE</t>
   </si>
 </sst>
 </file>
@@ -933,25 +933,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblNSGRules" displayName="tblNSGRules" ref="A11:K62" totalsRowShown="0" headerRowDxfId="12" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblNSGRules" displayName="tblNSGRules" ref="A11:K62" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A11:K62"/>
   <sortState ref="A12:K62">
     <sortCondition ref="A11:A62"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Sort" dataDxfId="11">
+    <tableColumn id="1" name="Sort" dataDxfId="10">
       <calculatedColumnFormula>B12&amp;"|"&amp;C12&amp;"|"&amp;TEXT(E12,"000000")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Type" dataDxfId="10"/>
-    <tableColumn id="3" name="Direction" dataDxfId="9"/>
-    <tableColumn id="4" name="Name" dataDxfId="8"/>
-    <tableColumn id="5" name="Priority" dataDxfId="7"/>
-    <tableColumn id="6" name="Source IP" dataDxfId="6"/>
-    <tableColumn id="7" name="Source Port" dataDxfId="5"/>
-    <tableColumn id="8" name="Destination IP" dataDxfId="4"/>
-    <tableColumn id="9" name="Destination Port" dataDxfId="3"/>
-    <tableColumn id="10" name="Protocol" dataDxfId="2"/>
-    <tableColumn id="11" name="Access" dataDxfId="1"/>
+    <tableColumn id="2" name="Type" dataDxfId="9"/>
+    <tableColumn id="3" name="Direction" dataDxfId="8"/>
+    <tableColumn id="4" name="Name" dataDxfId="7"/>
+    <tableColumn id="5" name="Priority" dataDxfId="6"/>
+    <tableColumn id="6" name="Source IP" dataDxfId="5"/>
+    <tableColumn id="7" name="Source Port" dataDxfId="4"/>
+    <tableColumn id="8" name="Destination IP" dataDxfId="3"/>
+    <tableColumn id="9" name="Destination Port" dataDxfId="2"/>
+    <tableColumn id="10" name="Protocol" dataDxfId="1"/>
+    <tableColumn id="11" name="Access" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1222,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1457,7 +1457,7 @@
         <v>10.10.10.0/24</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ref="D14:E16" si="4">"10."&amp;D$6&amp;".10.0/24"</f>
+        <f t="shared" ref="D14:E14" si="4">"10."&amp;D$6&amp;".10.0/24"</f>
         <v>10.20.10.0/24</v>
       </c>
       <c r="E14" t="str">
@@ -1512,7 +1512,7 @@
         <v>10.10.20.0/24</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:E18" si="6">"10."&amp;D$6&amp;".20.0/24"</f>
+        <f t="shared" ref="D17:E17" si="6">"10."&amp;D$6&amp;".20.0/24"</f>
         <v>10.20.20.0/24</v>
       </c>
       <c r="E17" t="str">
@@ -3087,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K123"/>
+  <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:A121"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10" t="str">
-        <f>B12&amp;"|"&amp;C12&amp;"|"&amp;TEXT(E12,"000000")</f>
+        <f t="shared" ref="A12:A43" si="0">B12&amp;"|"&amp;C12&amp;"|"&amp;TEXT(E12,"000000")</f>
         <v>BE|Inbound|000120</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="10" t="str">
-        <f>B13&amp;"|"&amp;C13&amp;"|"&amp;TEXT(E13,"000000")</f>
+        <f t="shared" si="0"/>
         <v>BE|Inbound|010000</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -3273,7 +3273,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="10" t="str">
-        <f>B14&amp;"|"&amp;C14&amp;"|"&amp;TEXT(E14,"000000")</f>
+        <f t="shared" si="0"/>
         <v>FE|Inbound|000100</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3309,7 +3309,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="10" t="str">
-        <f>B15&amp;"|"&amp;C15&amp;"|"&amp;TEXT(E15,"000000")</f>
+        <f t="shared" si="0"/>
         <v>FE|Inbound|000110</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3345,7 +3345,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="10" t="str">
-        <f>B16&amp;"|"&amp;C16&amp;"|"&amp;TEXT(E16,"000000")</f>
+        <f t="shared" si="0"/>
         <v>FE|Inbound|000200</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -3381,11 +3381,11 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="10" t="str">
-        <f>B17&amp;"|"&amp;C17&amp;"|"&amp;TEXT(E17,"000000")</f>
-        <v>FE|Outbound|000120</v>
+        <f t="shared" si="0"/>
+        <v>FE/BE|Outbound|000120</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>62</v>
@@ -3417,11 +3417,11 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="str">
-        <f>B18&amp;"|"&amp;C18&amp;"|"&amp;TEXT(E18,"000000")</f>
-        <v>FE|Outbound|000200</v>
+        <f t="shared" si="0"/>
+        <v>FE/BE|Outbound|000200</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>62</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10" t="str">
-        <f>B19&amp;"|"&amp;C19&amp;"|"&amp;TEXT(E19,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000400</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -3489,7 +3489,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10" t="str">
-        <f>B20&amp;"|"&amp;C20&amp;"|"&amp;TEXT(E20,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000401</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3525,7 +3525,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="10" t="str">
-        <f>B21&amp;"|"&amp;C21&amp;"|"&amp;TEXT(E21,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000402</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -3561,7 +3561,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="10" t="str">
-        <f>B22&amp;"|"&amp;C22&amp;"|"&amp;TEXT(E22,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000403</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -3597,7 +3597,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="10" t="str">
-        <f>B23&amp;"|"&amp;C23&amp;"|"&amp;TEXT(E23,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000404</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -3633,7 +3633,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="10" t="str">
-        <f>B24&amp;"|"&amp;C24&amp;"|"&amp;TEXT(E24,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000405</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -3669,7 +3669,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="10" t="str">
-        <f>B25&amp;"|"&amp;C25&amp;"|"&amp;TEXT(E25,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000406</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -3705,7 +3705,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="10" t="str">
-        <f>B26&amp;"|"&amp;C26&amp;"|"&amp;TEXT(E26,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000407</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -3741,7 +3741,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10" t="str">
-        <f>B27&amp;"|"&amp;C27&amp;"|"&amp;TEXT(E27,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000408</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -3777,7 +3777,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="str">
-        <f>B28&amp;"|"&amp;C28&amp;"|"&amp;TEXT(E28,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000409</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -3813,7 +3813,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="str">
-        <f>B29&amp;"|"&amp;C29&amp;"|"&amp;TEXT(E29,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000410</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3849,7 +3849,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="str">
-        <f>B30&amp;"|"&amp;C30&amp;"|"&amp;TEXT(E30,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000411</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -3885,7 +3885,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="str">
-        <f>B31&amp;"|"&amp;C31&amp;"|"&amp;TEXT(E31,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000412</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -3921,7 +3921,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="10" t="str">
-        <f>B32&amp;"|"&amp;C32&amp;"|"&amp;TEXT(E32,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000413</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -3957,7 +3957,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="str">
-        <f>B33&amp;"|"&amp;C33&amp;"|"&amp;TEXT(E33,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000414</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -3993,7 +3993,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="str">
-        <f>B34&amp;"|"&amp;C34&amp;"|"&amp;TEXT(E34,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000415</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -4029,7 +4029,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="str">
-        <f>B35&amp;"|"&amp;C35&amp;"|"&amp;TEXT(E35,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000416</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -4065,7 +4065,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="str">
-        <f>B36&amp;"|"&amp;C36&amp;"|"&amp;TEXT(E36,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000417</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -4101,7 +4101,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="str">
-        <f>B37&amp;"|"&amp;C37&amp;"|"&amp;TEXT(E37,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000418</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -4137,7 +4137,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="str">
-        <f>B38&amp;"|"&amp;C38&amp;"|"&amp;TEXT(E38,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000419</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -4173,7 +4173,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="str">
-        <f>B39&amp;"|"&amp;C39&amp;"|"&amp;TEXT(E39,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|000500</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -4209,7 +4209,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="str">
-        <f>B40&amp;"|"&amp;C40&amp;"|"&amp;TEXT(E40,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Inbound|011000</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -4245,7 +4245,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="12" t="str">
-        <f>B41&amp;"|"&amp;C41&amp;"|"&amp;TEXT(E41,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Outbound|000400</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -4281,7 +4281,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="12" t="str">
-        <f>B42&amp;"|"&amp;C42&amp;"|"&amp;TEXT(E42,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Outbound|000401</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -4317,7 +4317,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="12" t="str">
-        <f>B43&amp;"|"&amp;C43&amp;"|"&amp;TEXT(E43,"000000")</f>
+        <f t="shared" si="0"/>
         <v>zCommon|Outbound|000402</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -4353,7 +4353,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="12" t="str">
-        <f>B44&amp;"|"&amp;C44&amp;"|"&amp;TEXT(E44,"000000")</f>
+        <f t="shared" ref="A44:A76" si="1">B44&amp;"|"&amp;C44&amp;"|"&amp;TEXT(E44,"000000")</f>
         <v>zCommon|Outbound|000403</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -4389,7 +4389,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="12" t="str">
-        <f>B45&amp;"|"&amp;C45&amp;"|"&amp;TEXT(E45,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000404</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -4425,7 +4425,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="12" t="str">
-        <f>B46&amp;"|"&amp;C46&amp;"|"&amp;TEXT(E46,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000405</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -4461,7 +4461,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="12" t="str">
-        <f>B47&amp;"|"&amp;C47&amp;"|"&amp;TEXT(E47,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000406</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -4497,7 +4497,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="12" t="str">
-        <f>B48&amp;"|"&amp;C48&amp;"|"&amp;TEXT(E48,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000407</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -4533,7 +4533,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="12" t="str">
-        <f>B49&amp;"|"&amp;C49&amp;"|"&amp;TEXT(E49,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000408</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -4569,7 +4569,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="12" t="str">
-        <f>B50&amp;"|"&amp;C50&amp;"|"&amp;TEXT(E50,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000409</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -4605,7 +4605,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="12" t="str">
-        <f>B51&amp;"|"&amp;C51&amp;"|"&amp;TEXT(E51,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000410</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -4641,7 +4641,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="12" t="str">
-        <f>B52&amp;"|"&amp;C52&amp;"|"&amp;TEXT(E52,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000411</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -4677,7 +4677,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="12" t="str">
-        <f>B53&amp;"|"&amp;C53&amp;"|"&amp;TEXT(E53,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000412</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -4713,7 +4713,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="12" t="str">
-        <f>B54&amp;"|"&amp;C54&amp;"|"&amp;TEXT(E54,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000413</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -4749,7 +4749,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="12" t="str">
-        <f>B55&amp;"|"&amp;C55&amp;"|"&amp;TEXT(E55,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000414</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -4785,7 +4785,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="12" t="str">
-        <f>B56&amp;"|"&amp;C56&amp;"|"&amp;TEXT(E56,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000415</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -4821,7 +4821,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="12" t="str">
-        <f>B57&amp;"|"&amp;C57&amp;"|"&amp;TEXT(E57,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000416</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -4857,7 +4857,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="12" t="str">
-        <f>B58&amp;"|"&amp;C58&amp;"|"&amp;TEXT(E58,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000417</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -4893,7 +4893,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="12" t="str">
-        <f>B59&amp;"|"&amp;C59&amp;"|"&amp;TEXT(E59,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000418</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -4929,7 +4929,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="12" t="str">
-        <f>B60&amp;"|"&amp;C60&amp;"|"&amp;TEXT(E60,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000419</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -4965,7 +4965,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="12" t="str">
-        <f>B61&amp;"|"&amp;C61&amp;"|"&amp;TEXT(E61,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|000500</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -5001,7 +5001,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="12" t="str">
-        <f>B62&amp;"|"&amp;C62&amp;"|"&amp;TEXT(E62,"000000")</f>
+        <f t="shared" si="1"/>
         <v>zCommon|Outbound|011000</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -5067,9 +5067,7 @@
       <c r="B67" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" s="11" t="s">
@@ -5079,332 +5077,338 @@
     </row>
     <row r="69" spans="1:3">
       <c r="B69" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="15" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="15" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="9" t="str">
-        <f t="shared" ref="A71:A72" si="0">IF(VLOOKUP(B12,$B$67:$C$69,2,)="Y","{""name"": """&amp;D12&amp;""", ""properties"": { ""description"": """&amp;D12&amp;""", ""protocol"": """&amp;J12&amp;""", ""sourcePortRange"": """&amp;G12&amp;""", ""destinationPortRange"": """&amp;I12&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F12,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H12,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K12&amp;""", ""priority"": "&amp;E12&amp;", ""direction"": """&amp;C12&amp;""" }},","")</f>
-        <v>{"name": "FE_sql", "properties": { "description": "FE_sql", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "1433", "sourceAddressPrefix": "[parameters('feAddrPrefix')]", "destinationAddressPrefix": "[parameters('subnetAddrPrefix')]", "access": "Allow", "priority": 120, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name": "FE_Deny", "properties": { "description": "FE_Deny", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "*", "sourceAddressPrefix": "[parameters('feAddrPrefix')]", "destinationAddressPrefix": "[parameters('subnetAddrPrefix')]", "access": "Deny", "priority": 10000, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B12,$B$67:$C$70,2,)="Y","{""name"": """&amp;D12&amp;""", ""properties"": { ""description"": """&amp;D12&amp;""", ""protocol"": """&amp;J12&amp;""", ""sourcePortRange"": """&amp;G12&amp;""", ""destinationPortRange"": """&amp;I12&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F12,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H12,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K12&amp;""", ""priority"": "&amp;E12&amp;", ""direction"": """&amp;C12&amp;""" }},","")</f>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="9" t="str">
-        <f>IF(VLOOKUP(B14,$B$67:$C$69,2,)="Y","{""name"": """&amp;D14&amp;""", ""properties"": { ""description"": """&amp;D14&amp;""", ""protocol"": """&amp;J14&amp;""", ""sourcePortRange"": """&amp;G14&amp;""", ""destinationPortRange"": """&amp;I14&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F14,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H14,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K14&amp;""", ""priority"": "&amp;E14&amp;", ""direction"": """&amp;C14&amp;""" }},","")</f>
+        <f>IF(VLOOKUP(B13,$B$67:$C$70,2,)="Y","{""name"": """&amp;D13&amp;""", ""properties"": { ""description"": """&amp;D13&amp;""", ""protocol"": """&amp;J13&amp;""", ""sourcePortRange"": """&amp;G13&amp;""", ""destinationPortRange"": """&amp;I13&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F13,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H13,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K13&amp;""", ""priority"": "&amp;E13&amp;", ""direction"": """&amp;C13&amp;""" }},","")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="9" t="str">
-        <f t="shared" ref="A74:A123" si="1">IF(VLOOKUP(B15,$B$67:$C$69,2,)="Y","{""name"": """&amp;D15&amp;""", ""properties"": { ""description"": """&amp;D15&amp;""", ""protocol"": """&amp;J15&amp;""", ""sourcePortRange"": """&amp;G15&amp;""", ""destinationPortRange"": """&amp;I15&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F15,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H15,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K15&amp;""", ""priority"": "&amp;E15&amp;", ""direction"": """&amp;C15&amp;""" }},","")</f>
+        <f>IF(VLOOKUP(B14,$B$67:$C$70,2,)="Y","{""name"": """&amp;D14&amp;""", ""properties"": { ""description"": """&amp;D14&amp;""", ""protocol"": """&amp;J14&amp;""", ""sourcePortRange"": """&amp;G14&amp;""", ""destinationPortRange"": """&amp;I14&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F14,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H14,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K14&amp;""", ""priority"": "&amp;E14&amp;", ""direction"": """&amp;C14&amp;""" }},","")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(VLOOKUP(B15,$B$67:$C$70,2,)="Y","{""name"": """&amp;D15&amp;""", ""properties"": { ""description"": """&amp;D15&amp;""", ""protocol"": """&amp;J15&amp;""", ""sourcePortRange"": """&amp;G15&amp;""", ""destinationPortRange"": """&amp;I15&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F15,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H15,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K15&amp;""", ""priority"": "&amp;E15&amp;", ""direction"": """&amp;C15&amp;""" }},","")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(VLOOKUP(B16,$B$67:$C$70,2,)="Y","{""name"": """&amp;D16&amp;""", ""properties"": { ""description"": """&amp;D16&amp;""", ""protocol"": """&amp;J16&amp;""", ""sourcePortRange"": """&amp;G16&amp;""", ""destinationPortRange"": """&amp;I16&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F16,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H16,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K16&amp;""", ""priority"": "&amp;E16&amp;", ""direction"": """&amp;C16&amp;""" }},","")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(VLOOKUP(B17,$B$67:$C$70,2,)="Y","{""name"": """&amp;D17&amp;""", ""properties"": { ""description"": """&amp;D17&amp;""", ""protocol"": """&amp;J17&amp;""", ""sourcePortRange"": """&amp;G17&amp;""", ""destinationPortRange"": """&amp;I17&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F17,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H17,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K17&amp;""", ""priority"": "&amp;E17&amp;", ""direction"": """&amp;C17&amp;""" }},","")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_smtp", "properties": { "description": "AD_smtp", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "25", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 400, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B18,$B$67:$C$70,2,)="Y","{""name"": """&amp;D18&amp;""", ""properties"": { ""description"": """&amp;D18&amp;""", ""protocol"": """&amp;J18&amp;""", ""sourcePortRange"": """&amp;G18&amp;""", ""destinationPortRange"": """&amp;I18&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F18,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H18,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K18&amp;""", ""priority"": "&amp;E18&amp;", ""direction"": """&amp;C18&amp;""" }},","")</f>
+        <v/>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_wins", "properties": { "description": "AD_wins", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "42", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 401, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B19,$B$67:$C$70,2,)="Y","{""name"": """&amp;D19&amp;""", ""properties"": { ""description"": """&amp;D19&amp;""", ""protocol"": """&amp;J19&amp;""", ""sourcePortRange"": """&amp;G19&amp;""", ""destinationPortRange"": """&amp;I19&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F19,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H19,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K19&amp;""", ""priority"": "&amp;E19&amp;", ""direction"": """&amp;C19&amp;""" }},","")</f>
+        <v>{"name": "AD_smtp", "properties": { "description": "AD_smtp", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "25", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 400, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dns", "properties": { "description": "AD_dns", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "53", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 402, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B20,$B$67:$C$70,2,)="Y","{""name"": """&amp;D20&amp;""", ""properties"": { ""description"": """&amp;D20&amp;""", ""protocol"": """&amp;J20&amp;""", ""sourcePortRange"": """&amp;G20&amp;""", ""destinationPortRange"": """&amp;I20&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F20,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H20,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K20&amp;""", ""priority"": "&amp;E20&amp;", ""direction"": """&amp;C20&amp;""" }},","")</f>
+        <v>{"name": "AD_wins", "properties": { "description": "AD_wins", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "42", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 401, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dhcp1", "properties": { "description": "AD_dhcp1", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "67", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 403, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B21,$B$67:$C$70,2,)="Y","{""name"": """&amp;D21&amp;""", ""properties"": { ""description"": """&amp;D21&amp;""", ""protocol"": """&amp;J21&amp;""", ""sourcePortRange"": """&amp;G21&amp;""", ""destinationPortRange"": """&amp;I21&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F21,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H21,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K21&amp;""", ""priority"": "&amp;E21&amp;", ""direction"": """&amp;C21&amp;""" }},","")</f>
+        <v>{"name": "AD_dns", "properties": { "description": "AD_dns", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "53", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 402, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_kerberos", "properties": { "description": "AD_kerberos", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "88", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 404, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B22,$B$67:$C$70,2,)="Y","{""name"": """&amp;D22&amp;""", ""properties"": { ""description"": """&amp;D22&amp;""", ""protocol"": """&amp;J22&amp;""", ""sourcePortRange"": """&amp;G22&amp;""", ""destinationPortRange"": """&amp;I22&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F22,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H22,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K22&amp;""", ""priority"": "&amp;E22&amp;", ""direction"": """&amp;C22&amp;""" }},","")</f>
+        <v>{"name": "AD_dhcp1", "properties": { "description": "AD_dhcp1", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "67", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 403, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_windowstime", "properties": { "description": "AD_windowstime", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "123", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 405, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B23,$B$67:$C$70,2,)="Y","{""name"": """&amp;D23&amp;""", ""properties"": { ""description"": """&amp;D23&amp;""", ""protocol"": """&amp;J23&amp;""", ""sourcePortRange"": """&amp;G23&amp;""", ""destinationPortRange"": """&amp;I23&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F23,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H23,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K23&amp;""", ""priority"": "&amp;E23&amp;", ""direction"": """&amp;C23&amp;""" }},","")</f>
+        <v>{"name": "AD_kerberos", "properties": { "description": "AD_kerberos", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "88", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 404, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_rpcepm", "properties": { "description": "AD_rpcepm", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "135", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 406, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B24,$B$67:$C$70,2,)="Y","{""name"": """&amp;D24&amp;""", ""properties"": { ""description"": """&amp;D24&amp;""", ""protocol"": """&amp;J24&amp;""", ""sourcePortRange"": """&amp;G24&amp;""", ""destinationPortRange"": """&amp;I24&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F24,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H24,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K24&amp;""", ""priority"": "&amp;E24&amp;", ""direction"": """&amp;C24&amp;""" }},","")</f>
+        <v>{"name": "AD_windowstime", "properties": { "description": "AD_windowstime", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "123", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 405, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_netbiosname", "properties": { "description": "AD_netbiosname", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "137", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 407, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B25,$B$67:$C$70,2,)="Y","{""name"": """&amp;D25&amp;""", ""properties"": { ""description"": """&amp;D25&amp;""", ""protocol"": """&amp;J25&amp;""", ""sourcePortRange"": """&amp;G25&amp;""", ""destinationPortRange"": """&amp;I25&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F25,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H25,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K25&amp;""", ""priority"": "&amp;E25&amp;", ""direction"": """&amp;C25&amp;""" }},","")</f>
+        <v>{"name": "AD_rpcepm", "properties": { "description": "AD_rpcepm", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "135", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 406, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_netbioddata", "properties": { "description": "AD_netbioddata", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "138", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 408, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B26,$B$67:$C$70,2,)="Y","{""name"": """&amp;D26&amp;""", ""properties"": { ""description"": """&amp;D26&amp;""", ""protocol"": """&amp;J26&amp;""", ""sourcePortRange"": """&amp;G26&amp;""", ""destinationPortRange"": """&amp;I26&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F26,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H26,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K26&amp;""", ""priority"": "&amp;E26&amp;", ""direction"": """&amp;C26&amp;""" }},","")</f>
+        <v>{"name": "AD_netbiosname", "properties": { "description": "AD_netbiosname", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "137", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 407, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_netbiodsession", "properties": { "description": "AD_netbiodsession", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "139", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 409, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B27,$B$67:$C$70,2,)="Y","{""name"": """&amp;D27&amp;""", ""properties"": { ""description"": """&amp;D27&amp;""", ""protocol"": """&amp;J27&amp;""", ""sourcePortRange"": """&amp;G27&amp;""", ""destinationPortRange"": """&amp;I27&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F27,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H27,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K27&amp;""", ""priority"": "&amp;E27&amp;", ""direction"": """&amp;C27&amp;""" }},","")</f>
+        <v>{"name": "AD_netbioddata", "properties": { "description": "AD_netbioddata", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "138", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 408, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_ldap", "properties": { "description": "AD_ldap", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "389", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 410, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B28,$B$67:$C$70,2,)="Y","{""name"": """&amp;D28&amp;""", ""properties"": { ""description"": """&amp;D28&amp;""", ""protocol"": """&amp;J28&amp;""", ""sourcePortRange"": """&amp;G28&amp;""", ""destinationPortRange"": """&amp;I28&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F28,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H28,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K28&amp;""", ""priority"": "&amp;E28&amp;", ""direction"": """&amp;C28&amp;""" }},","")</f>
+        <v>{"name": "AD_netbiodsession", "properties": { "description": "AD_netbiodsession", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "139", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 409, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_replication", "properties": { "description": "AD_replication", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "445", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 411, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B29,$B$67:$C$70,2,)="Y","{""name"": """&amp;D29&amp;""", ""properties"": { ""description"": """&amp;D29&amp;""", ""protocol"": """&amp;J29&amp;""", ""sourcePortRange"": """&amp;G29&amp;""", ""destinationPortRange"": """&amp;I29&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F29,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H29,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K29&amp;""", ""priority"": "&amp;E29&amp;", ""direction"": """&amp;C29&amp;""" }},","")</f>
+        <v>{"name": "AD_ldap", "properties": { "description": "AD_ldap", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "389", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 410, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_passwordchange", "properties": { "description": "AD_passwordchange", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "464", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 412, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B30,$B$67:$C$70,2,)="Y","{""name"": """&amp;D30&amp;""", ""properties"": { ""description"": """&amp;D30&amp;""", ""protocol"": """&amp;J30&amp;""", ""sourcePortRange"": """&amp;G30&amp;""", ""destinationPortRange"": """&amp;I30&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F30,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H30,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K30&amp;""", ""priority"": "&amp;E30&amp;", ""direction"": """&amp;C30&amp;""" }},","")</f>
+        <v>{"name": "AD_replication", "properties": { "description": "AD_replication", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "445", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 411, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_ldapssl", "properties": { "description": "AD_ldapssl", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "636", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 413, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B31,$B$67:$C$70,2,)="Y","{""name"": """&amp;D31&amp;""", ""properties"": { ""description"": """&amp;D31&amp;""", ""protocol"": """&amp;J31&amp;""", ""sourcePortRange"": """&amp;G31&amp;""", ""destinationPortRange"": """&amp;I31&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F31,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H31,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K31&amp;""", ""priority"": "&amp;E31&amp;", ""direction"": """&amp;C31&amp;""" }},","")</f>
+        <v>{"name": "AD_passwordchange", "properties": { "description": "AD_passwordchange", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "464", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 412, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dhcp2", "properties": { "description": "AD_dhcp2", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "2535", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 414, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B32,$B$67:$C$70,2,)="Y","{""name"": """&amp;D32&amp;""", ""properties"": { ""description"": """&amp;D32&amp;""", ""protocol"": """&amp;J32&amp;""", ""sourcePortRange"": """&amp;G32&amp;""", ""destinationPortRange"": """&amp;I32&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F32,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H32,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K32&amp;""", ""priority"": "&amp;E32&amp;", ""direction"": """&amp;C32&amp;""" }},","")</f>
+        <v>{"name": "AD_ldapssl", "properties": { "description": "AD_ldapssl", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "636", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 413, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_ldapgc", "properties": { "description": "AD_ldapgc", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3268", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 415, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B33,$B$67:$C$70,2,)="Y","{""name"": """&amp;D33&amp;""", ""properties"": { ""description"": """&amp;D33&amp;""", ""protocol"": """&amp;J33&amp;""", ""sourcePortRange"": """&amp;G33&amp;""", ""destinationPortRange"": """&amp;I33&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F33,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H33,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K33&amp;""", ""priority"": "&amp;E33&amp;", ""direction"": """&amp;C33&amp;""" }},","")</f>
+        <v>{"name": "AD_dhcp2", "properties": { "description": "AD_dhcp2", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "2535", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 414, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_ldapgcssl", "properties": { "description": "AD_ldapgcssl", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3269", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 416, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B34,$B$67:$C$70,2,)="Y","{""name"": """&amp;D34&amp;""", ""properties"": { ""description"": """&amp;D34&amp;""", ""protocol"": """&amp;J34&amp;""", ""sourcePortRange"": """&amp;G34&amp;""", ""destinationPortRange"": """&amp;I34&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F34,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H34,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K34&amp;""", ""priority"": "&amp;E34&amp;", ""direction"": """&amp;C34&amp;""" }},","")</f>
+        <v>{"name": "AD_ldapgc", "properties": { "description": "AD_ldapgc", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3268", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 415, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dfsr", "properties": { "description": "AD_dfsr", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "5722", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 417, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B35,$B$67:$C$70,2,)="Y","{""name"": """&amp;D35&amp;""", ""properties"": { ""description"": """&amp;D35&amp;""", ""protocol"": """&amp;J35&amp;""", ""sourcePortRange"": """&amp;G35&amp;""", ""destinationPortRange"": """&amp;I35&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F35,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H35,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K35&amp;""", ""priority"": "&amp;E35&amp;", ""direction"": """&amp;C35&amp;""" }},","")</f>
+        <v>{"name": "AD_ldapgcssl", "properties": { "description": "AD_ldapgcssl", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3269", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 416, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_soap", "properties": { "description": "AD_soap", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "9389", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 418, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B36,$B$67:$C$70,2,)="Y","{""name"": """&amp;D36&amp;""", ""properties"": { ""description"": """&amp;D36&amp;""", ""protocol"": """&amp;J36&amp;""", ""sourcePortRange"": """&amp;G36&amp;""", ""destinationPortRange"": """&amp;I36&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F36,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H36,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K36&amp;""", ""priority"": "&amp;E36&amp;", ""direction"": """&amp;C36&amp;""" }},","")</f>
+        <v>{"name": "AD_dfsr", "properties": { "description": "AD_dfsr", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "5722", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 417, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dynamic", "properties": { "description": "AD_dynamic", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "49152-65535", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 419, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B37,$B$67:$C$70,2,)="Y","{""name"": """&amp;D37&amp;""", ""properties"": { ""description"": """&amp;D37&amp;""", ""protocol"": """&amp;J37&amp;""", ""sourcePortRange"": """&amp;G37&amp;""", ""destinationPortRange"": """&amp;I37&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F37,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H37,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K37&amp;""", ""priority"": "&amp;E37&amp;", ""direction"": """&amp;C37&amp;""" }},","")</f>
+        <v>{"name": "AD_soap", "properties": { "description": "AD_soap", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "9389", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 418, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "VNET_rdp", "properties": { "description": "VNET_rdp", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3889", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 500, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B38,$B$67:$C$70,2,)="Y","{""name"": """&amp;D38&amp;""", ""properties"": { ""description"": """&amp;D38&amp;""", ""protocol"": """&amp;J38&amp;""", ""sourcePortRange"": """&amp;G38&amp;""", ""destinationPortRange"": """&amp;I38&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F38,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H38,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K38&amp;""", ""priority"": "&amp;E38&amp;", ""direction"": """&amp;C38&amp;""" }},","")</f>
+        <v>{"name": "AD_dynamic", "properties": { "description": "AD_dynamic", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "49152-65535", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 419, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "VNET_Deny", "properties": { "description": "VNET_Deny", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "*", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Deny", "priority": 11000, "direction": "Inbound" }},</v>
+        <f>IF(VLOOKUP(B39,$B$67:$C$70,2,)="Y","{""name"": """&amp;D39&amp;""", ""properties"": { ""description"": """&amp;D39&amp;""", ""protocol"": """&amp;J39&amp;""", ""sourcePortRange"": """&amp;G39&amp;""", ""destinationPortRange"": """&amp;I39&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F39,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H39,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K39&amp;""", ""priority"": "&amp;E39&amp;", ""direction"": """&amp;C39&amp;""" }},","")</f>
+        <v>{"name": "VNET_rdp", "properties": { "description": "VNET_rdp", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3889", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 500, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_smtp", "properties": { "description": "AD_smtp", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "25", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 400, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B40,$B$67:$C$70,2,)="Y","{""name"": """&amp;D40&amp;""", ""properties"": { ""description"": """&amp;D40&amp;""", ""protocol"": """&amp;J40&amp;""", ""sourcePortRange"": """&amp;G40&amp;""", ""destinationPortRange"": """&amp;I40&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F40,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H40,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K40&amp;""", ""priority"": "&amp;E40&amp;", ""direction"": """&amp;C40&amp;""" }},","")</f>
+        <v>{"name": "VNET_Deny", "properties": { "description": "VNET_Deny", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "*", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Deny", "priority": 11000, "direction": "Inbound" }},</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_wins", "properties": { "description": "AD_wins", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "42", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 401, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B41,$B$67:$C$70,2,)="Y","{""name"": """&amp;D41&amp;""", ""properties"": { ""description"": """&amp;D41&amp;""", ""protocol"": """&amp;J41&amp;""", ""sourcePortRange"": """&amp;G41&amp;""", ""destinationPortRange"": """&amp;I41&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F41,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H41,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K41&amp;""", ""priority"": "&amp;E41&amp;", ""direction"": """&amp;C41&amp;""" }},","")</f>
+        <v>{"name": "AD_smtp", "properties": { "description": "AD_smtp", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "25", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 400, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dns", "properties": { "description": "AD_dns", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "53", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 402, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B42,$B$67:$C$70,2,)="Y","{""name"": """&amp;D42&amp;""", ""properties"": { ""description"": """&amp;D42&amp;""", ""protocol"": """&amp;J42&amp;""", ""sourcePortRange"": """&amp;G42&amp;""", ""destinationPortRange"": """&amp;I42&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F42,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H42,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K42&amp;""", ""priority"": "&amp;E42&amp;", ""direction"": """&amp;C42&amp;""" }},","")</f>
+        <v>{"name": "AD_wins", "properties": { "description": "AD_wins", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "42", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 401, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dhcp1", "properties": { "description": "AD_dhcp1", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "67", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 403, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B43,$B$67:$C$70,2,)="Y","{""name"": """&amp;D43&amp;""", ""properties"": { ""description"": """&amp;D43&amp;""", ""protocol"": """&amp;J43&amp;""", ""sourcePortRange"": """&amp;G43&amp;""", ""destinationPortRange"": """&amp;I43&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F43,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H43,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K43&amp;""", ""priority"": "&amp;E43&amp;", ""direction"": """&amp;C43&amp;""" }},","")</f>
+        <v>{"name": "AD_dns", "properties": { "description": "AD_dns", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "53", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 402, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_kerberos", "properties": { "description": "AD_kerberos", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "88", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 404, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B44,$B$67:$C$70,2,)="Y","{""name"": """&amp;D44&amp;""", ""properties"": { ""description"": """&amp;D44&amp;""", ""protocol"": """&amp;J44&amp;""", ""sourcePortRange"": """&amp;G44&amp;""", ""destinationPortRange"": """&amp;I44&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F44,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H44,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K44&amp;""", ""priority"": "&amp;E44&amp;", ""direction"": """&amp;C44&amp;""" }},","")</f>
+        <v>{"name": "AD_dhcp1", "properties": { "description": "AD_dhcp1", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "67", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 403, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_windowstime", "properties": { "description": "AD_windowstime", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "123", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 405, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B45,$B$67:$C$70,2,)="Y","{""name"": """&amp;D45&amp;""", ""properties"": { ""description"": """&amp;D45&amp;""", ""protocol"": """&amp;J45&amp;""", ""sourcePortRange"": """&amp;G45&amp;""", ""destinationPortRange"": """&amp;I45&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F45,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H45,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K45&amp;""", ""priority"": "&amp;E45&amp;", ""direction"": """&amp;C45&amp;""" }},","")</f>
+        <v>{"name": "AD_kerberos", "properties": { "description": "AD_kerberos", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "88", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 404, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_rpcepm", "properties": { "description": "AD_rpcepm", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "135", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 406, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B46,$B$67:$C$70,2,)="Y","{""name"": """&amp;D46&amp;""", ""properties"": { ""description"": """&amp;D46&amp;""", ""protocol"": """&amp;J46&amp;""", ""sourcePortRange"": """&amp;G46&amp;""", ""destinationPortRange"": """&amp;I46&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F46,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H46,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K46&amp;""", ""priority"": "&amp;E46&amp;", ""direction"": """&amp;C46&amp;""" }},","")</f>
+        <v>{"name": "AD_windowstime", "properties": { "description": "AD_windowstime", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "123", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 405, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_netbiosname", "properties": { "description": "AD_netbiosname", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "137", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 407, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B47,$B$67:$C$70,2,)="Y","{""name"": """&amp;D47&amp;""", ""properties"": { ""description"": """&amp;D47&amp;""", ""protocol"": """&amp;J47&amp;""", ""sourcePortRange"": """&amp;G47&amp;""", ""destinationPortRange"": """&amp;I47&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F47,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H47,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K47&amp;""", ""priority"": "&amp;E47&amp;", ""direction"": """&amp;C47&amp;""" }},","")</f>
+        <v>{"name": "AD_rpcepm", "properties": { "description": "AD_rpcepm", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "135", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 406, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_netbioddata", "properties": { "description": "AD_netbioddata", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "138", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 408, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B48,$B$67:$C$70,2,)="Y","{""name"": """&amp;D48&amp;""", ""properties"": { ""description"": """&amp;D48&amp;""", ""protocol"": """&amp;J48&amp;""", ""sourcePortRange"": """&amp;G48&amp;""", ""destinationPortRange"": """&amp;I48&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F48,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H48,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K48&amp;""", ""priority"": "&amp;E48&amp;", ""direction"": """&amp;C48&amp;""" }},","")</f>
+        <v>{"name": "AD_netbiosname", "properties": { "description": "AD_netbiosname", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "137", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 407, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_netbiodsession", "properties": { "description": "AD_netbiodsession", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "139", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 409, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B49,$B$67:$C$70,2,)="Y","{""name"": """&amp;D49&amp;""", ""properties"": { ""description"": """&amp;D49&amp;""", ""protocol"": """&amp;J49&amp;""", ""sourcePortRange"": """&amp;G49&amp;""", ""destinationPortRange"": """&amp;I49&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F49,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H49,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K49&amp;""", ""priority"": "&amp;E49&amp;", ""direction"": """&amp;C49&amp;""" }},","")</f>
+        <v>{"name": "AD_netbioddata", "properties": { "description": "AD_netbioddata", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "138", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 408, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_ldap", "properties": { "description": "AD_ldap", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "389", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 410, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B50,$B$67:$C$70,2,)="Y","{""name"": """&amp;D50&amp;""", ""properties"": { ""description"": """&amp;D50&amp;""", ""protocol"": """&amp;J50&amp;""", ""sourcePortRange"": """&amp;G50&amp;""", ""destinationPortRange"": """&amp;I50&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F50,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H50,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K50&amp;""", ""priority"": "&amp;E50&amp;", ""direction"": """&amp;C50&amp;""" }},","")</f>
+        <v>{"name": "AD_netbiodsession", "properties": { "description": "AD_netbiodsession", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "139", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 409, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_replication", "properties": { "description": "AD_replication", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "445", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 411, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B51,$B$67:$C$70,2,)="Y","{""name"": """&amp;D51&amp;""", ""properties"": { ""description"": """&amp;D51&amp;""", ""protocol"": """&amp;J51&amp;""", ""sourcePortRange"": """&amp;G51&amp;""", ""destinationPortRange"": """&amp;I51&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F51,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H51,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K51&amp;""", ""priority"": "&amp;E51&amp;", ""direction"": """&amp;C51&amp;""" }},","")</f>
+        <v>{"name": "AD_ldap", "properties": { "description": "AD_ldap", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "389", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 410, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_passwordchange", "properties": { "description": "AD_passwordchange", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "464", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 412, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B52,$B$67:$C$70,2,)="Y","{""name"": """&amp;D52&amp;""", ""properties"": { ""description"": """&amp;D52&amp;""", ""protocol"": """&amp;J52&amp;""", ""sourcePortRange"": """&amp;G52&amp;""", ""destinationPortRange"": """&amp;I52&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F52,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H52,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K52&amp;""", ""priority"": "&amp;E52&amp;", ""direction"": """&amp;C52&amp;""" }},","")</f>
+        <v>{"name": "AD_replication", "properties": { "description": "AD_replication", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "445", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 411, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_ldapssl", "properties": { "description": "AD_ldapssl", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "636", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 413, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B53,$B$67:$C$70,2,)="Y","{""name"": """&amp;D53&amp;""", ""properties"": { ""description"": """&amp;D53&amp;""", ""protocol"": """&amp;J53&amp;""", ""sourcePortRange"": """&amp;G53&amp;""", ""destinationPortRange"": """&amp;I53&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F53,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H53,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K53&amp;""", ""priority"": "&amp;E53&amp;", ""direction"": """&amp;C53&amp;""" }},","")</f>
+        <v>{"name": "AD_passwordchange", "properties": { "description": "AD_passwordchange", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "464", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 412, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dhcp2", "properties": { "description": "AD_dhcp2", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "2535", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 414, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B54,$B$67:$C$70,2,)="Y","{""name"": """&amp;D54&amp;""", ""properties"": { ""description"": """&amp;D54&amp;""", ""protocol"": """&amp;J54&amp;""", ""sourcePortRange"": """&amp;G54&amp;""", ""destinationPortRange"": """&amp;I54&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F54,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H54,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K54&amp;""", ""priority"": "&amp;E54&amp;", ""direction"": """&amp;C54&amp;""" }},","")</f>
+        <v>{"name": "AD_ldapssl", "properties": { "description": "AD_ldapssl", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "636", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 413, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_ldapgc", "properties": { "description": "AD_ldapgc", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3268", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 415, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B55,$B$67:$C$70,2,)="Y","{""name"": """&amp;D55&amp;""", ""properties"": { ""description"": """&amp;D55&amp;""", ""protocol"": """&amp;J55&amp;""", ""sourcePortRange"": """&amp;G55&amp;""", ""destinationPortRange"": """&amp;I55&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F55,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H55,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K55&amp;""", ""priority"": "&amp;E55&amp;", ""direction"": """&amp;C55&amp;""" }},","")</f>
+        <v>{"name": "AD_dhcp2", "properties": { "description": "AD_dhcp2", "protocol": "Udp", "sourcePortRange": "*", "destinationPortRange": "2535", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 414, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_ldapgcssl", "properties": { "description": "AD_ldapgcssl", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3269", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 416, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B56,$B$67:$C$70,2,)="Y","{""name"": """&amp;D56&amp;""", ""properties"": { ""description"": """&amp;D56&amp;""", ""protocol"": """&amp;J56&amp;""", ""sourcePortRange"": """&amp;G56&amp;""", ""destinationPortRange"": """&amp;I56&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F56,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H56,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K56&amp;""", ""priority"": "&amp;E56&amp;", ""direction"": """&amp;C56&amp;""" }},","")</f>
+        <v>{"name": "AD_ldapgc", "properties": { "description": "AD_ldapgc", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3268", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 415, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dfsr", "properties": { "description": "AD_dfsr", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "5722", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 417, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B57,$B$67:$C$70,2,)="Y","{""name"": """&amp;D57&amp;""", ""properties"": { ""description"": """&amp;D57&amp;""", ""protocol"": """&amp;J57&amp;""", ""sourcePortRange"": """&amp;G57&amp;""", ""destinationPortRange"": """&amp;I57&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F57,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H57,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K57&amp;""", ""priority"": "&amp;E57&amp;", ""direction"": """&amp;C57&amp;""" }},","")</f>
+        <v>{"name": "AD_ldapgcssl", "properties": { "description": "AD_ldapgcssl", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3269", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 416, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_soap", "properties": { "description": "AD_soap", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "9389", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 418, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B58,$B$67:$C$70,2,)="Y","{""name"": """&amp;D58&amp;""", ""properties"": { ""description"": """&amp;D58&amp;""", ""protocol"": """&amp;J58&amp;""", ""sourcePortRange"": """&amp;G58&amp;""", ""destinationPortRange"": """&amp;I58&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F58,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H58,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K58&amp;""", ""priority"": "&amp;E58&amp;", ""direction"": """&amp;C58&amp;""" }},","")</f>
+        <v>{"name": "AD_dfsr", "properties": { "description": "AD_dfsr", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "5722", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 417, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "AD_dynamic", "properties": { "description": "AD_dynamic", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "49152-65535", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 419, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B59,$B$67:$C$70,2,)="Y","{""name"": """&amp;D59&amp;""", ""properties"": { ""description"": """&amp;D59&amp;""", ""protocol"": """&amp;J59&amp;""", ""sourcePortRange"": """&amp;G59&amp;""", ""destinationPortRange"": """&amp;I59&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F59,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H59,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K59&amp;""", ""priority"": "&amp;E59&amp;", ""direction"": """&amp;C59&amp;""" }},","")</f>
+        <v>{"name": "AD_soap", "properties": { "description": "AD_soap", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "9389", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 418, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>{"name": "VNET_rdp", "properties": { "description": "VNET_rdp", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3889", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 500, "direction": "Outbound" }},</v>
+        <f>IF(VLOOKUP(B60,$B$67:$C$70,2,)="Y","{""name"": """&amp;D60&amp;""", ""properties"": { ""description"": """&amp;D60&amp;""", ""protocol"": """&amp;J60&amp;""", ""sourcePortRange"": """&amp;G60&amp;""", ""destinationPortRange"": """&amp;I60&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F60,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H60,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K60&amp;""", ""priority"": "&amp;E60&amp;", ""direction"": """&amp;C60&amp;""" }},","")</f>
+        <v>{"name": "AD_dynamic", "properties": { "description": "AD_dynamic", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "49152-65535", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 419, "direction": "Outbound" }},</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(VLOOKUP(B61,$B$67:$C$70,2,)="Y","{""name"": """&amp;D61&amp;""", ""properties"": { ""description"": """&amp;D61&amp;""", ""protocol"": """&amp;J61&amp;""", ""sourcePortRange"": """&amp;G61&amp;""", ""destinationPortRange"": """&amp;I61&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F61,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H61,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K61&amp;""", ""priority"": "&amp;E61&amp;", ""direction"": """&amp;C61&amp;""" }},","")</f>
+        <v>{"name": "VNET_rdp", "properties": { "description": "VNET_rdp", "protocol": "Tcp", "sourcePortRange": "*", "destinationPortRange": "3889", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Allow", "priority": 500, "direction": "Outbound" }},</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="9" t="str">
+        <f>IF(VLOOKUP(B62,$B$67:$C$70,2,)="Y","{""name"": """&amp;D62&amp;""", ""properties"": { ""description"": """&amp;D62&amp;""", ""protocol"": """&amp;J62&amp;""", ""sourcePortRange"": """&amp;G62&amp;""", ""destinationPortRange"": """&amp;I62&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F62,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H62,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K62&amp;""", ""priority"": "&amp;E62&amp;", ""direction"": """&amp;C62&amp;""" }},","")</f>
         <v>{"name": "VNET_Deny", "properties": { "description": "VNET_Deny", "protocol": "*", "sourcePortRange": "*", "destinationPortRange": "*", "sourceAddressPrefix": "VirtualNetwork", "destinationAddressPrefix": "VirtualNetwork", "access": "Deny", "priority": 11000, "direction": "Outbound" }},</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="9" t="e">
-        <f t="shared" si="1"/>
+        <f>IF(VLOOKUP(B63,$B$67:$C$70,2,)="Y","{""name"": """&amp;D63&amp;""", ""properties"": { ""description"": """&amp;D63&amp;""", ""protocol"": """&amp;J63&amp;""", ""sourcePortRange"": """&amp;G63&amp;""", ""destinationPortRange"": """&amp;I63&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F63,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H63,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K63&amp;""", ""priority"": "&amp;E63&amp;", ""direction"": """&amp;C63&amp;""" }},","")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="9" t="e">
+        <f>IF(VLOOKUP(B64,$B$67:$C$70,2,)="Y","{""name"": """&amp;D64&amp;""", ""properties"": { ""description"": """&amp;D64&amp;""", ""protocol"": """&amp;J64&amp;""", ""sourcePortRange"": """&amp;G64&amp;""", ""destinationPortRange"": """&amp;I64&amp;""", ""sourceAddressPrefix"": """&amp;VLOOKUP(F64,$B$2:$C$8,2,)&amp;""", """&amp;"destinationAddressPrefix"": """&amp;VLOOKUP(H64,$B$2:$C$8,2,)&amp;""", ""access"": """&amp;K64&amp;""", ""priority"": "&amp;E64&amp;", ""direction"": """&amp;C64&amp;""" }},","")</f>
         <v>#N/A</v>
       </c>
     </row>
